--- a/PROJECTS/project_06_fundamentals/characteristics.xlsx
+++ b/PROJECTS/project_06_fundamentals/characteristics.xlsx
@@ -422,7 +422,7 @@
         <v>101</v>
       </c>
       <c r="N1">
-        <v>323</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -466,7 +466,7 @@
         <v>92</v>
       </c>
       <c r="N2">
-        <v>322</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -510,7 +510,7 @@
         <v>92</v>
       </c>
       <c r="N3">
-        <v>322</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -554,7 +554,7 @@
         <v>89</v>
       </c>
       <c r="N4">
-        <v>342</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -598,7 +598,7 @@
         <v>86</v>
       </c>
       <c r="N5">
-        <v>329</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -642,7 +642,7 @@
         <v>105</v>
       </c>
       <c r="N6">
-        <v>313</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -686,7 +686,7 @@
         <v>99</v>
       </c>
       <c r="N7">
-        <v>331</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -730,7 +730,7 @@
         <v>87</v>
       </c>
       <c r="N8">
-        <v>342</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -774,7 +774,7 @@
         <v>91</v>
       </c>
       <c r="N9">
-        <v>289</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -818,7 +818,7 @@
         <v>96</v>
       </c>
       <c r="N10">
-        <v>303</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -862,7 +862,7 @@
         <v>100</v>
       </c>
       <c r="N11">
-        <v>302</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -906,7 +906,7 @@
         <v>107</v>
       </c>
       <c r="N12">
-        <v>308</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -950,7 +950,7 @@
         <v>89</v>
       </c>
       <c r="N13">
-        <v>315</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -994,7 +994,7 @@
         <v>113</v>
       </c>
       <c r="N14">
-        <v>299</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1038,7 +1038,7 @@
         <v>91</v>
       </c>
       <c r="N15">
-        <v>317</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1082,7 +1082,7 @@
         <v>91</v>
       </c>
       <c r="N16">
-        <v>317</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1126,7 +1126,7 @@
         <v>96</v>
       </c>
       <c r="N17">
-        <v>304</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1170,7 +1170,7 @@
         <v>118</v>
       </c>
       <c r="N18">
-        <v>303</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1214,7 +1214,7 @@
         <v>98</v>
       </c>
       <c r="N19">
-        <v>302</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1258,7 +1258,7 @@
         <v>90</v>
       </c>
       <c r="N20">
-        <v>328</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1302,7 +1302,7 @@
         <v>92</v>
       </c>
       <c r="N21">
-        <v>325</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1346,7 +1346,7 @@
         <v>94</v>
       </c>
       <c r="N22">
-        <v>323</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1390,7 +1390,7 @@
         <v>113</v>
       </c>
       <c r="N23">
-        <v>323</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1434,7 +1434,7 @@
         <v>106</v>
       </c>
       <c r="N24">
-        <v>318</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1478,7 +1478,7 @@
         <v>104</v>
       </c>
       <c r="N25">
-        <v>327</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1522,7 +1522,7 @@
         <v>130</v>
       </c>
       <c r="N26">
-        <v>305</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1566,7 +1566,7 @@
         <v>108</v>
       </c>
       <c r="N27">
-        <v>293</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1610,7 +1610,7 @@
         <v>81</v>
       </c>
       <c r="N28">
-        <v>308</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1654,7 +1654,7 @@
         <v>69</v>
       </c>
       <c r="N29">
-        <v>290</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1698,7 +1698,7 @@
         <v>96</v>
       </c>
       <c r="N30">
-        <v>308</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1742,7 +1742,7 @@
         <v>96</v>
       </c>
       <c r="N31">
-        <v>301</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1786,7 +1786,7 @@
         <v>98</v>
       </c>
       <c r="N32">
-        <v>302</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -1830,7 +1830,7 @@
         <v>78</v>
       </c>
       <c r="N33">
-        <v>275</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -1874,7 +1874,7 @@
         <v>97</v>
       </c>
       <c r="N34">
-        <v>303</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -1918,7 +1918,7 @@
         <v>79</v>
       </c>
       <c r="N35">
-        <v>286</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -1962,7 +1962,7 @@
         <v>95</v>
       </c>
       <c r="N36">
-        <v>303</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2006,7 +2006,7 @@
         <v>98</v>
       </c>
       <c r="N37">
-        <v>307</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2050,7 +2050,7 @@
         <v>101</v>
       </c>
       <c r="N38">
-        <v>298</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2094,7 +2094,7 @@
         <v>96</v>
       </c>
       <c r="N39">
-        <v>309</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2138,7 +2138,7 @@
         <v>95</v>
       </c>
       <c r="N40">
-        <v>315</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2182,7 +2182,7 @@
         <v>92</v>
       </c>
       <c r="N41">
-        <v>311</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2226,7 +2226,7 @@
         <v>126</v>
       </c>
       <c r="N42">
-        <v>296</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2270,7 +2270,7 @@
         <v>96</v>
       </c>
       <c r="N43">
-        <v>318</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2314,7 +2314,7 @@
         <v>96</v>
       </c>
       <c r="N44">
-        <v>316</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2358,7 +2358,7 @@
         <v>97</v>
       </c>
       <c r="N45">
-        <v>320</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2402,7 +2402,7 @@
         <v>100</v>
       </c>
       <c r="N46">
-        <v>327</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2446,7 +2446,7 @@
         <v>100</v>
       </c>
       <c r="N47">
-        <v>324</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2490,7 +2490,7 @@
         <v>105</v>
       </c>
       <c r="N48">
-        <v>319</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -2534,7 +2534,7 @@
         <v>104</v>
       </c>
       <c r="N49">
-        <v>322</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -2578,7 +2578,7 @@
         <v>110</v>
       </c>
       <c r="N50">
-        <v>319</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -2622,7 +2622,7 @@
         <v>79</v>
       </c>
       <c r="N51">
-        <v>303</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -2666,7 +2666,7 @@
         <v>116</v>
       </c>
       <c r="N52">
-        <v>329</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -2710,7 +2710,7 @@
         <v>103</v>
       </c>
       <c r="N53">
-        <v>329</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -2754,7 +2754,7 @@
         <v>99</v>
       </c>
       <c r="N54">
-        <v>316</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -2798,7 +2798,7 @@
         <v>97</v>
       </c>
       <c r="N55">
-        <v>314</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -2842,7 +2842,7 @@
         <v>90</v>
       </c>
       <c r="N56">
-        <v>293</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -2886,7 +2886,7 @@
         <v>81</v>
       </c>
       <c r="N57">
-        <v>331</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -2930,7 +2930,7 @@
         <v>85</v>
       </c>
       <c r="N58">
-        <v>309</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -2974,7 +2974,7 @@
         <v>85</v>
       </c>
       <c r="N59">
-        <v>309</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3018,7 +3018,7 @@
         <v>89</v>
       </c>
       <c r="N60">
-        <v>312</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3062,7 +3062,7 @@
         <v>89</v>
       </c>
       <c r="N61">
-        <v>312</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3106,7 +3106,7 @@
         <v>92</v>
       </c>
       <c r="N62">
-        <v>307</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3150,7 +3150,7 @@
         <v>78</v>
       </c>
       <c r="N63">
-        <v>322</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3194,7 +3194,7 @@
         <v>83</v>
       </c>
       <c r="N64">
-        <v>336</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3238,7 +3238,7 @@
         <v>80</v>
       </c>
       <c r="N65">
-        <v>336</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3282,7 +3282,7 @@
         <v>90</v>
       </c>
       <c r="N66">
-        <v>332</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3326,7 +3326,7 @@
         <v>85</v>
       </c>
       <c r="N67">
-        <v>346</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3370,7 +3370,7 @@
         <v>138</v>
       </c>
       <c r="N68">
-        <v>296</v>
+        <v>157</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3414,7 +3414,7 @@
         <v>136</v>
       </c>
       <c r="N69">
-        <v>289</v>
+        <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3458,7 +3458,7 @@
         <v>151</v>
       </c>
       <c r="N70">
-        <v>278</v>
+        <v>177</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3502,7 +3502,7 @@
         <v>79</v>
       </c>
       <c r="N71">
-        <v>342</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3546,7 +3546,7 @@
         <v>102</v>
       </c>
       <c r="N72">
-        <v>366</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -3590,7 +3590,7 @@
         <v>96</v>
       </c>
       <c r="N73">
-        <v>356</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -3634,7 +3634,7 @@
         <v>95</v>
       </c>
       <c r="N74">
-        <v>361</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -3678,7 +3678,7 @@
         <v>96</v>
       </c>
       <c r="N75">
-        <v>352</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -3722,7 +3722,7 @@
         <v>94</v>
       </c>
       <c r="N76">
-        <v>364</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -3766,7 +3766,7 @@
         <v>96</v>
       </c>
       <c r="N77">
-        <v>363</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -3810,7 +3810,7 @@
         <v>96</v>
       </c>
       <c r="N78">
-        <v>359</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -3854,7 +3854,7 @@
         <v>92</v>
       </c>
       <c r="N79">
-        <v>350</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -3898,7 +3898,7 @@
         <v>90</v>
       </c>
       <c r="N80">
-        <v>364</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -3942,7 +3942,7 @@
         <v>107</v>
       </c>
       <c r="N81">
-        <v>351</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -3986,7 +3986,7 @@
         <v>90</v>
       </c>
       <c r="N82">
-        <v>364</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -4030,7 +4030,7 @@
         <v>97</v>
       </c>
       <c r="N83">
-        <v>357</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -4074,7 +4074,7 @@
         <v>95</v>
       </c>
       <c r="N84">
-        <v>369</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4118,7 +4118,7 @@
         <v>97</v>
       </c>
       <c r="N85">
-        <v>370</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -4162,7 +4162,7 @@
         <v>94</v>
       </c>
       <c r="N86">
-        <v>370</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -4206,7 +4206,7 @@
         <v>79</v>
       </c>
       <c r="N87">
-        <v>354</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -4250,7 +4250,7 @@
         <v>92</v>
       </c>
       <c r="N88">
-        <v>363</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -4294,7 +4294,7 @@
         <v>99</v>
       </c>
       <c r="N89">
-        <v>343</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -4338,7 +4338,7 @@
         <v>111</v>
       </c>
       <c r="N90">
-        <v>352</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -4382,7 +4382,7 @@
         <v>111</v>
       </c>
       <c r="N91">
-        <v>352</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -4426,7 +4426,7 @@
         <v>83</v>
       </c>
       <c r="N92">
-        <v>363</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -4470,7 +4470,7 @@
         <v>81</v>
       </c>
       <c r="N93">
-        <v>368</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -4514,7 +4514,7 @@
         <v>89</v>
       </c>
       <c r="N94">
-        <v>361</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -4558,7 +4558,7 @@
         <v>89</v>
       </c>
       <c r="N95">
-        <v>361</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -4602,7 +4602,7 @@
         <v>79</v>
       </c>
       <c r="N96">
-        <v>371</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -4646,7 +4646,7 @@
         <v>88</v>
       </c>
       <c r="N97">
-        <v>362</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -4690,7 +4690,7 @@
         <v>90</v>
       </c>
       <c r="N98">
-        <v>369</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -4734,7 +4734,7 @@
         <v>90</v>
       </c>
       <c r="N99">
-        <v>369</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -4778,7 +4778,7 @@
         <v>84</v>
       </c>
       <c r="N100">
-        <v>364</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -4822,7 +4822,7 @@
         <v>82</v>
       </c>
       <c r="N101">
-        <v>363</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -4866,7 +4866,7 @@
         <v>78</v>
       </c>
       <c r="N102">
-        <v>371</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -4910,7 +4910,7 @@
         <v>94</v>
       </c>
       <c r="N103">
-        <v>370</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -4954,7 +4954,7 @@
         <v>77</v>
       </c>
       <c r="N104">
-        <v>370</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -4998,7 +4998,7 @@
         <v>105</v>
       </c>
       <c r="N105">
-        <v>351</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -5042,7 +5042,7 @@
         <v>79</v>
       </c>
       <c r="N106">
-        <v>345</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -5086,7 +5086,7 @@
         <v>58</v>
       </c>
       <c r="N107">
-        <v>308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -5130,7 +5130,7 @@
         <v>73</v>
       </c>
       <c r="N108">
-        <v>364</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -5174,7 +5174,7 @@
         <v>70</v>
       </c>
       <c r="N109">
-        <v>364</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -5218,7 +5218,7 @@
         <v>70</v>
       </c>
       <c r="N110">
-        <v>368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -5262,7 +5262,7 @@
         <v>70</v>
       </c>
       <c r="N111">
-        <v>368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -5306,7 +5306,7 @@
         <v>65</v>
       </c>
       <c r="N112">
-        <v>352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -5350,7 +5350,7 @@
         <v>70</v>
       </c>
       <c r="N113">
-        <v>384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -5394,7 +5394,7 @@
         <v>61</v>
       </c>
       <c r="N114">
-        <v>383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -5438,7 +5438,7 @@
         <v>92</v>
       </c>
       <c r="N115">
-        <v>417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -5482,7 +5482,7 @@
         <v>53</v>
       </c>
       <c r="N116">
-        <v>376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -5526,7 +5526,7 @@
         <v>70</v>
       </c>
       <c r="N117">
-        <v>332</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -5570,7 +5570,7 @@
         <v>71</v>
       </c>
       <c r="N118">
-        <v>349</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -5614,7 +5614,7 @@
         <v>73</v>
       </c>
       <c r="N119">
-        <v>347</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -5658,7 +5658,7 @@
         <v>82</v>
       </c>
       <c r="N120">
-        <v>354</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -5702,7 +5702,7 @@
         <v>57</v>
       </c>
       <c r="N121">
-        <v>308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -5746,7 +5746,7 @@
         <v>55</v>
       </c>
       <c r="N122">
-        <v>368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -5790,7 +5790,7 @@
         <v>49</v>
       </c>
       <c r="N123">
-        <v>352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -5834,7 +5834,7 @@
         <v>24</v>
       </c>
       <c r="N124">
-        <v>322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -5878,7 +5878,7 @@
         <v>31</v>
       </c>
       <c r="N125">
-        <v>368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -5922,7 +5922,7 @@
         <v>18</v>
       </c>
       <c r="N126">
-        <v>329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -5966,7 +5966,7 @@
         <v>43</v>
       </c>
       <c r="N127">
-        <v>294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -6010,7 +6010,7 @@
         <v>40</v>
       </c>
       <c r="N128">
-        <v>294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -6054,7 +6054,7 @@
         <v>63</v>
       </c>
       <c r="N129">
-        <v>352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -6098,7 +6098,7 @@
         <v>31</v>
       </c>
       <c r="N130">
-        <v>308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -6142,7 +6142,7 @@
         <v>53</v>
       </c>
       <c r="N131">
-        <v>352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -6186,7 +6186,7 @@
         <v>39</v>
       </c>
       <c r="N132">
-        <v>308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -6230,7 +6230,7 @@
         <v>23</v>
       </c>
       <c r="N133">
-        <v>308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -6274,7 +6274,7 @@
         <v>23</v>
       </c>
       <c r="N134">
-        <v>322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -6318,7 +6318,7 @@
         <v>21</v>
       </c>
       <c r="N135">
-        <v>336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -6362,7 +6362,7 @@
         <v>16</v>
       </c>
       <c r="N136">
-        <v>329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -6406,7 +6406,7 @@
         <v>87</v>
       </c>
       <c r="N137">
-        <v>367</v>
+        <v>24</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -6450,7 +6450,7 @@
         <v>91</v>
       </c>
       <c r="N138">
-        <v>367</v>
+        <v>21</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -6494,7 +6494,7 @@
         <v>85</v>
       </c>
       <c r="N139">
-        <v>368</v>
+        <v>22</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -6538,7 +6538,7 @@
         <v>81</v>
       </c>
       <c r="N140">
-        <v>375</v>
+        <v>23</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -6582,7 +6582,7 @@
         <v>82</v>
       </c>
       <c r="N141">
-        <v>370</v>
+        <v>23</v>
       </c>
     </row>
     <row r="142" spans="1:14">
@@ -6626,7 +6626,7 @@
         <v>102</v>
       </c>
       <c r="N142">
-        <v>361</v>
+        <v>30</v>
       </c>
     </row>
     <row r="143" spans="1:14">
@@ -6670,7 +6670,7 @@
         <v>94</v>
       </c>
       <c r="N143">
-        <v>367</v>
+        <v>25</v>
       </c>
     </row>
     <row r="144" spans="1:14">
@@ -6714,7 +6714,7 @@
         <v>95</v>
       </c>
       <c r="N144">
-        <v>372</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145" spans="1:14">
@@ -6758,7 +6758,7 @@
         <v>102</v>
       </c>
       <c r="N145">
-        <v>368</v>
+        <v>29</v>
       </c>
     </row>
     <row r="146" spans="1:14">
@@ -6802,7 +6802,7 @@
         <v>112</v>
       </c>
       <c r="N146">
-        <v>409</v>
+        <v>42</v>
       </c>
     </row>
     <row r="147" spans="1:14">
@@ -6846,7 +6846,7 @@
         <v>85</v>
       </c>
       <c r="N147">
-        <v>359</v>
+        <v>19</v>
       </c>
     </row>
     <row r="148" spans="1:14">
@@ -6890,7 +6890,7 @@
         <v>100</v>
       </c>
       <c r="N148">
-        <v>374</v>
+        <v>27</v>
       </c>
     </row>
     <row r="149" spans="1:14">
@@ -6934,7 +6934,7 @@
         <v>99</v>
       </c>
       <c r="N149">
-        <v>368</v>
+        <v>20</v>
       </c>
     </row>
     <row r="150" spans="1:14">
@@ -6978,7 +6978,7 @@
         <v>79</v>
       </c>
       <c r="N150">
-        <v>363</v>
+        <v>18</v>
       </c>
     </row>
     <row r="151" spans="1:14">
@@ -7022,7 +7022,7 @@
         <v>85</v>
       </c>
       <c r="N151">
-        <v>359</v>
+        <v>21</v>
       </c>
     </row>
     <row r="152" spans="1:14">
@@ -7066,7 +7066,7 @@
         <v>104</v>
       </c>
       <c r="N152">
-        <v>376</v>
+        <v>31</v>
       </c>
     </row>
     <row r="153" spans="1:14">
@@ -7110,7 +7110,7 @@
         <v>90</v>
       </c>
       <c r="N153">
-        <v>374</v>
+        <v>23</v>
       </c>
     </row>
     <row r="154" spans="1:14">
@@ -7154,7 +7154,7 @@
         <v>93</v>
       </c>
       <c r="N154">
-        <v>363</v>
+        <v>27</v>
       </c>
     </row>
     <row r="155" spans="1:14">
@@ -7198,7 +7198,7 @@
         <v>93</v>
       </c>
       <c r="N155">
-        <v>373</v>
+        <v>26</v>
       </c>
     </row>
     <row r="156" spans="1:14">
@@ -7242,7 +7242,7 @@
         <v>121</v>
       </c>
       <c r="N156">
-        <v>415</v>
+        <v>41</v>
       </c>
     </row>
     <row r="157" spans="1:14">
@@ -7286,7 +7286,7 @@
         <v>127</v>
       </c>
       <c r="N157">
-        <v>390</v>
+        <v>42</v>
       </c>
     </row>
     <row r="158" spans="1:14">
@@ -7330,7 +7330,7 @@
         <v>85</v>
       </c>
       <c r="N158">
-        <v>375</v>
+        <v>21</v>
       </c>
     </row>
     <row r="159" spans="1:14">
@@ -7374,7 +7374,7 @@
         <v>88</v>
       </c>
       <c r="N159">
-        <v>373</v>
+        <v>26</v>
       </c>
     </row>
     <row r="160" spans="1:14">
@@ -7418,7 +7418,7 @@
         <v>117</v>
       </c>
       <c r="N160">
-        <v>386</v>
+        <v>33</v>
       </c>
     </row>
     <row r="161" spans="1:14">
@@ -7462,7 +7462,7 @@
         <v>136</v>
       </c>
       <c r="N161">
-        <v>410</v>
+        <v>49</v>
       </c>
     </row>
     <row r="162" spans="1:14">
@@ -7506,7 +7506,7 @@
         <v>122</v>
       </c>
       <c r="N162">
-        <v>409</v>
+        <v>44</v>
       </c>
     </row>
     <row r="163" spans="1:14">
@@ -7550,7 +7550,7 @@
         <v>98</v>
       </c>
       <c r="N163">
-        <v>377</v>
+        <v>25</v>
       </c>
     </row>
     <row r="164" spans="1:14">
@@ -7594,7 +7594,7 @@
         <v>87</v>
       </c>
       <c r="N164">
-        <v>387</v>
+        <v>21</v>
       </c>
     </row>
     <row r="165" spans="1:14">
@@ -7638,7 +7638,7 @@
         <v>96</v>
       </c>
       <c r="N165">
-        <v>371</v>
+        <v>27</v>
       </c>
     </row>
     <row r="166" spans="1:14">
@@ -7682,7 +7682,7 @@
         <v>87</v>
       </c>
       <c r="N166">
-        <v>387</v>
+        <v>21</v>
       </c>
     </row>
     <row r="167" spans="1:14">
@@ -7726,7 +7726,7 @@
         <v>126</v>
       </c>
       <c r="N167">
-        <v>407</v>
+        <v>43</v>
       </c>
     </row>
     <row r="168" spans="1:14">
@@ -7770,7 +7770,7 @@
         <v>87</v>
       </c>
       <c r="N168">
-        <v>387</v>
+        <v>21</v>
       </c>
     </row>
     <row r="169" spans="1:14">
@@ -7814,7 +7814,7 @@
         <v>126</v>
       </c>
       <c r="N169">
-        <v>407</v>
+        <v>43</v>
       </c>
     </row>
     <row r="170" spans="1:14">
@@ -7858,7 +7858,7 @@
         <v>87</v>
       </c>
       <c r="N170">
-        <v>377</v>
+        <v>22</v>
       </c>
     </row>
     <row r="171" spans="1:14">
@@ -7902,7 +7902,7 @@
         <v>127</v>
       </c>
       <c r="N171">
-        <v>413</v>
+        <v>42</v>
       </c>
     </row>
     <row r="172" spans="1:14">
@@ -7946,7 +7946,7 @@
         <v>93</v>
       </c>
       <c r="N172">
-        <v>374</v>
+        <v>22</v>
       </c>
     </row>
     <row r="173" spans="1:14">
@@ -7990,7 +7990,7 @@
         <v>97</v>
       </c>
       <c r="N173">
-        <v>380</v>
+        <v>27</v>
       </c>
     </row>
     <row r="174" spans="1:14">
@@ -8034,7 +8034,7 @@
         <v>93</v>
       </c>
       <c r="N174">
-        <v>374</v>
+        <v>22</v>
       </c>
     </row>
     <row r="175" spans="1:14">
@@ -8078,7 +8078,7 @@
         <v>95</v>
       </c>
       <c r="N175">
-        <v>371</v>
+        <v>27</v>
       </c>
     </row>
     <row r="176" spans="1:14">
@@ -8122,7 +8122,7 @@
         <v>114</v>
       </c>
       <c r="N176">
-        <v>377</v>
+        <v>34</v>
       </c>
     </row>
     <row r="177" spans="1:14">
@@ -8166,7 +8166,7 @@
         <v>136</v>
       </c>
       <c r="N177">
-        <v>411</v>
+        <v>50</v>
       </c>
     </row>
     <row r="178" spans="1:14">
@@ -8210,7 +8210,7 @@
         <v>121</v>
       </c>
       <c r="N178">
-        <v>418</v>
+        <v>36</v>
       </c>
     </row>
     <row r="179" spans="1:14">
@@ -8254,7 +8254,7 @@
         <v>130</v>
       </c>
       <c r="N179">
-        <v>420</v>
+        <v>44</v>
       </c>
     </row>
     <row r="180" spans="1:14">
@@ -8298,7 +8298,7 @@
         <v>96</v>
       </c>
       <c r="N180">
-        <v>372</v>
+        <v>23</v>
       </c>
     </row>
     <row r="181" spans="1:14">
@@ -8342,7 +8342,7 @@
         <v>138</v>
       </c>
       <c r="N181">
-        <v>407</v>
+        <v>47</v>
       </c>
     </row>
     <row r="182" spans="1:14">
@@ -8386,7 +8386,7 @@
         <v>123</v>
       </c>
       <c r="N182">
-        <v>416</v>
+        <v>38</v>
       </c>
     </row>
     <row r="183" spans="1:14">
@@ -8430,7 +8430,7 @@
         <v>143</v>
       </c>
       <c r="N183">
-        <v>414</v>
+        <v>54</v>
       </c>
     </row>
     <row r="184" spans="1:14">
@@ -8474,7 +8474,7 @@
         <v>123</v>
       </c>
       <c r="N184">
-        <v>414</v>
+        <v>38</v>
       </c>
     </row>
     <row r="185" spans="1:14">
@@ -8518,7 +8518,7 @@
         <v>126</v>
       </c>
       <c r="N185">
-        <v>408</v>
+        <v>41</v>
       </c>
     </row>
     <row r="186" spans="1:14">
@@ -8562,7 +8562,7 @@
         <v>107</v>
       </c>
       <c r="N186">
-        <v>382</v>
+        <v>26</v>
       </c>
     </row>
     <row r="187" spans="1:14">
@@ -8606,7 +8606,7 @@
         <v>125</v>
       </c>
       <c r="N187">
-        <v>407</v>
+        <v>43</v>
       </c>
     </row>
     <row r="188" spans="1:14">
@@ -8650,7 +8650,7 @@
         <v>92</v>
       </c>
       <c r="N188">
-        <v>396</v>
+        <v>24</v>
       </c>
     </row>
     <row r="189" spans="1:14">
@@ -8694,7 +8694,7 @@
         <v>130</v>
       </c>
       <c r="N189">
-        <v>412</v>
+        <v>42</v>
       </c>
     </row>
     <row r="190" spans="1:14">
@@ -8738,7 +8738,7 @@
         <v>100</v>
       </c>
       <c r="N190">
-        <v>398</v>
+        <v>19</v>
       </c>
     </row>
     <row r="191" spans="1:14">
@@ -8782,7 +8782,7 @@
         <v>114</v>
       </c>
       <c r="N191">
-        <v>374</v>
+        <v>33</v>
       </c>
     </row>
     <row r="192" spans="1:14">
@@ -8826,7 +8826,7 @@
         <v>104</v>
       </c>
       <c r="N192">
-        <v>412</v>
+        <v>18</v>
       </c>
     </row>
     <row r="193" spans="1:14">
@@ -8870,7 +8870,7 @@
         <v>128</v>
       </c>
       <c r="N193">
-        <v>410</v>
+        <v>42</v>
       </c>
     </row>
     <row r="194" spans="1:14">
@@ -8914,7 +8914,7 @@
         <v>112</v>
       </c>
       <c r="N194">
-        <v>403</v>
+        <v>26</v>
       </c>
     </row>
     <row r="195" spans="1:14">
@@ -8958,7 +8958,7 @@
         <v>136</v>
       </c>
       <c r="N195">
-        <v>426</v>
+        <v>42</v>
       </c>
     </row>
     <row r="196" spans="1:14">
@@ -9002,7 +9002,7 @@
         <v>77</v>
       </c>
       <c r="N196">
-        <v>349</v>
+        <v>20</v>
       </c>
     </row>
     <row r="197" spans="1:14">
@@ -9046,7 +9046,7 @@
         <v>87</v>
       </c>
       <c r="N197">
-        <v>372</v>
+        <v>18</v>
       </c>
     </row>
     <row r="198" spans="1:14">
@@ -9090,7 +9090,7 @@
         <v>97</v>
       </c>
       <c r="N198">
-        <v>365</v>
+        <v>24</v>
       </c>
     </row>
     <row r="199" spans="1:14">
@@ -9134,7 +9134,7 @@
         <v>80</v>
       </c>
       <c r="N199">
-        <v>370</v>
+        <v>20</v>
       </c>
     </row>
     <row r="200" spans="1:14">
@@ -9178,7 +9178,7 @@
         <v>85</v>
       </c>
       <c r="N200">
-        <v>376</v>
+        <v>24</v>
       </c>
     </row>
     <row r="201" spans="1:14">
@@ -9222,7 +9222,7 @@
         <v>79</v>
       </c>
       <c r="N201">
-        <v>374</v>
+        <v>16</v>
       </c>
     </row>
     <row r="202" spans="1:14">
@@ -9266,7 +9266,7 @@
         <v>97</v>
       </c>
       <c r="N202">
-        <v>363</v>
+        <v>24</v>
       </c>
     </row>
     <row r="203" spans="1:14">
@@ -9310,7 +9310,7 @@
         <v>97</v>
       </c>
       <c r="N203">
-        <v>363</v>
+        <v>24</v>
       </c>
     </row>
     <row r="204" spans="1:14">
@@ -9354,7 +9354,7 @@
         <v>100</v>
       </c>
       <c r="N204">
-        <v>363</v>
+        <v>33</v>
       </c>
     </row>
     <row r="205" spans="1:14">
@@ -9398,7 +9398,7 @@
         <v>83</v>
       </c>
       <c r="N205">
-        <v>377</v>
+        <v>22</v>
       </c>
     </row>
     <row r="206" spans="1:14">
@@ -9442,7 +9442,7 @@
         <v>82</v>
       </c>
       <c r="N206">
-        <v>370</v>
+        <v>22</v>
       </c>
     </row>
     <row r="207" spans="1:14">
@@ -9486,7 +9486,7 @@
         <v>104</v>
       </c>
       <c r="N207">
-        <v>371</v>
+        <v>33</v>
       </c>
     </row>
     <row r="208" spans="1:14">
@@ -9530,7 +9530,7 @@
         <v>98</v>
       </c>
       <c r="N208">
-        <v>373</v>
+        <v>29</v>
       </c>
     </row>
     <row r="209" spans="1:14">
@@ -9574,7 +9574,7 @@
         <v>85</v>
       </c>
       <c r="N209">
-        <v>386</v>
+        <v>23</v>
       </c>
     </row>
     <row r="210" spans="1:14">
@@ -9618,7 +9618,7 @@
         <v>89</v>
       </c>
       <c r="N210">
-        <v>389</v>
+        <v>35</v>
       </c>
     </row>
     <row r="211" spans="1:14">
@@ -9662,7 +9662,7 @@
         <v>82</v>
       </c>
       <c r="N211">
-        <v>388</v>
+        <v>20</v>
       </c>
     </row>
     <row r="212" spans="1:14">
@@ -9706,7 +9706,7 @@
         <v>82</v>
       </c>
       <c r="N212">
-        <v>388</v>
+        <v>20</v>
       </c>
     </row>
     <row r="213" spans="1:14">
@@ -9750,7 +9750,7 @@
         <v>109</v>
       </c>
       <c r="N213">
-        <v>375</v>
+        <v>31</v>
       </c>
     </row>
     <row r="214" spans="1:14">
@@ -9794,7 +9794,7 @@
         <v>98</v>
       </c>
       <c r="N214">
-        <v>393</v>
+        <v>18</v>
       </c>
     </row>
     <row r="215" spans="1:14">
@@ -9838,7 +9838,7 @@
         <v>95</v>
       </c>
       <c r="N215">
-        <v>392</v>
+        <v>22</v>
       </c>
     </row>
     <row r="216" spans="1:14">
@@ -9882,7 +9882,7 @@
         <v>114</v>
       </c>
       <c r="N216">
-        <v>359</v>
+        <v>26</v>
       </c>
     </row>
     <row r="217" spans="1:14">
@@ -9926,7 +9926,7 @@
         <v>120</v>
       </c>
       <c r="N217">
-        <v>380</v>
+        <v>26</v>
       </c>
     </row>
     <row r="218" spans="1:14">
@@ -9970,7 +9970,7 @@
         <v>123</v>
       </c>
       <c r="N218">
-        <v>374</v>
+        <v>31</v>
       </c>
     </row>
     <row r="219" spans="1:14">
@@ -10014,7 +10014,7 @@
         <v>124</v>
       </c>
       <c r="N219">
-        <v>387</v>
+        <v>39</v>
       </c>
     </row>
     <row r="220" spans="1:14">
@@ -10058,7 +10058,7 @@
         <v>138</v>
       </c>
       <c r="N220">
-        <v>397</v>
+        <v>55</v>
       </c>
     </row>
     <row r="221" spans="1:14">
@@ -10102,7 +10102,7 @@
         <v>146</v>
       </c>
       <c r="N221">
-        <v>411</v>
+        <v>55</v>
       </c>
     </row>
     <row r="222" spans="1:14">
@@ -10146,7 +10146,7 @@
         <v>114</v>
       </c>
       <c r="N222">
-        <v>378</v>
+        <v>30</v>
       </c>
     </row>
     <row r="223" spans="1:14">
@@ -10190,7 +10190,7 @@
         <v>124</v>
       </c>
       <c r="N223">
-        <v>374</v>
+        <v>33</v>
       </c>
     </row>
     <row r="224" spans="1:14">
@@ -10234,7 +10234,7 @@
         <v>131</v>
       </c>
       <c r="N224">
-        <v>371</v>
+        <v>42</v>
       </c>
     </row>
     <row r="225" spans="1:14">
@@ -10278,7 +10278,7 @@
         <v>123</v>
       </c>
       <c r="N225">
-        <v>371</v>
+        <v>41</v>
       </c>
     </row>
     <row r="226" spans="1:14">
@@ -10322,7 +10322,7 @@
         <v>125</v>
       </c>
       <c r="N226">
-        <v>384</v>
+        <v>35</v>
       </c>
     </row>
     <row r="227" spans="1:14">
@@ -10366,7 +10366,7 @@
         <v>118</v>
       </c>
       <c r="N227">
-        <v>387</v>
+        <v>24</v>
       </c>
     </row>
     <row r="228" spans="1:14">
@@ -10410,7 +10410,7 @@
         <v>143</v>
       </c>
       <c r="N228">
-        <v>413</v>
+        <v>45</v>
       </c>
     </row>
     <row r="229" spans="1:14">
@@ -10454,7 +10454,7 @@
         <v>143</v>
       </c>
       <c r="N229">
-        <v>423</v>
+        <v>46</v>
       </c>
     </row>
     <row r="230" spans="1:14">
@@ -10498,7 +10498,7 @@
         <v>143</v>
       </c>
       <c r="N230">
-        <v>410</v>
+        <v>46</v>
       </c>
     </row>
     <row r="231" spans="1:14">
@@ -10542,7 +10542,7 @@
         <v>128</v>
       </c>
       <c r="N231">
-        <v>388</v>
+        <v>35</v>
       </c>
     </row>
     <row r="232" spans="1:14">
@@ -10586,7 +10586,7 @@
         <v>116</v>
       </c>
       <c r="N232">
-        <v>381</v>
+        <v>30</v>
       </c>
     </row>
     <row r="233" spans="1:14">
@@ -10630,7 +10630,7 @@
         <v>123</v>
       </c>
       <c r="N233">
-        <v>382</v>
+        <v>36</v>
       </c>
     </row>
     <row r="234" spans="1:14">
@@ -10674,7 +10674,7 @@
         <v>144</v>
       </c>
       <c r="N234">
-        <v>405</v>
+        <v>38</v>
       </c>
     </row>
     <row r="235" spans="1:14">
@@ -10718,7 +10718,7 @@
         <v>134</v>
       </c>
       <c r="N235">
-        <v>412</v>
+        <v>35</v>
       </c>
     </row>
     <row r="236" spans="1:14">
@@ -10762,7 +10762,7 @@
         <v>139</v>
       </c>
       <c r="N236">
-        <v>411</v>
+        <v>40</v>
       </c>
     </row>
     <row r="237" spans="1:14">
@@ -10806,7 +10806,7 @@
         <v>130</v>
       </c>
       <c r="N237">
-        <v>416</v>
+        <v>32</v>
       </c>
     </row>
     <row r="238" spans="1:14">
@@ -10850,7 +10850,7 @@
         <v>139</v>
       </c>
       <c r="N238">
-        <v>404</v>
+        <v>44</v>
       </c>
     </row>
     <row r="239" spans="1:14">
@@ -10894,7 +10894,7 @@
         <v>140</v>
       </c>
       <c r="N239">
-        <v>414</v>
+        <v>38</v>
       </c>
     </row>
     <row r="240" spans="1:14">
@@ -10938,7 +10938,7 @@
         <v>50</v>
       </c>
       <c r="N240">
-        <v>334</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:14">
@@ -10982,7 +10982,7 @@
         <v>55</v>
       </c>
       <c r="N241">
-        <v>324</v>
+        <v>6</v>
       </c>
     </row>
     <row r="242" spans="1:14">
@@ -11026,7 +11026,7 @@
         <v>66</v>
       </c>
       <c r="N242">
-        <v>322</v>
+        <v>6</v>
       </c>
     </row>
     <row r="243" spans="1:14">
@@ -11070,7 +11070,7 @@
         <v>54</v>
       </c>
       <c r="N243">
-        <v>320</v>
+        <v>7</v>
       </c>
     </row>
     <row r="244" spans="1:14">
@@ -11114,7 +11114,7 @@
         <v>49</v>
       </c>
       <c r="N244">
-        <v>334</v>
+        <v>6</v>
       </c>
     </row>
     <row r="245" spans="1:14">
@@ -11158,7 +11158,7 @@
         <v>76</v>
       </c>
       <c r="N245">
-        <v>346</v>
+        <v>11</v>
       </c>
     </row>
     <row r="246" spans="1:14">
@@ -11202,7 +11202,7 @@
         <v>71</v>
       </c>
       <c r="N246">
-        <v>367</v>
+        <v>14</v>
       </c>
     </row>
     <row r="247" spans="1:14">
@@ -11246,7 +11246,7 @@
         <v>97</v>
       </c>
       <c r="N247">
-        <v>400</v>
+        <v>12</v>
       </c>
     </row>
     <row r="248" spans="1:14">
@@ -11290,7 +11290,7 @@
         <v>74</v>
       </c>
       <c r="N248">
-        <v>405</v>
+        <v>15</v>
       </c>
     </row>
     <row r="249" spans="1:14">
@@ -11334,7 +11334,7 @@
         <v>100</v>
       </c>
       <c r="N249">
-        <v>393</v>
+        <v>15</v>
       </c>
     </row>
     <row r="250" spans="1:14">
@@ -11378,7 +11378,7 @@
         <v>43</v>
       </c>
       <c r="N250">
-        <v>322</v>
+        <v>4</v>
       </c>
     </row>
     <row r="251" spans="1:14">
@@ -11422,7 +11422,7 @@
         <v>35</v>
       </c>
       <c r="N251">
-        <v>289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:14">
@@ -11466,7 +11466,7 @@
         <v>45</v>
       </c>
       <c r="N252">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="253" spans="1:14">
@@ -11510,7 +11510,7 @@
         <v>56</v>
       </c>
       <c r="N253">
-        <v>335</v>
+        <v>6</v>
       </c>
     </row>
     <row r="254" spans="1:14">
@@ -11554,7 +11554,7 @@
         <v>54</v>
       </c>
       <c r="N254">
-        <v>336</v>
+        <v>7</v>
       </c>
     </row>
     <row r="255" spans="1:14">
@@ -11598,7 +11598,7 @@
         <v>75</v>
       </c>
       <c r="N255">
-        <v>358</v>
+        <v>6</v>
       </c>
     </row>
     <row r="256" spans="1:14">
@@ -11642,7 +11642,7 @@
         <v>60</v>
       </c>
       <c r="N256">
-        <v>342</v>
+        <v>7</v>
       </c>
     </row>
     <row r="257" spans="1:14">
@@ -11686,7 +11686,7 @@
         <v>56</v>
       </c>
       <c r="N257">
-        <v>338</v>
+        <v>5</v>
       </c>
     </row>
     <row r="258" spans="1:14">
@@ -11730,7 +11730,7 @@
         <v>80</v>
       </c>
       <c r="N258">
-        <v>378</v>
+        <v>13</v>
       </c>
     </row>
     <row r="259" spans="1:14">
@@ -11774,7 +11774,7 @@
         <v>54</v>
       </c>
       <c r="N259">
-        <v>339</v>
+        <v>3</v>
       </c>
     </row>
     <row r="260" spans="1:14">
@@ -11818,7 +11818,7 @@
         <v>54</v>
       </c>
       <c r="N260">
-        <v>334</v>
+        <v>6</v>
       </c>
     </row>
     <row r="261" spans="1:14">
@@ -11862,7 +11862,7 @@
         <v>67</v>
       </c>
       <c r="N261">
-        <v>354</v>
+        <v>5</v>
       </c>
     </row>
     <row r="262" spans="1:14">
@@ -11906,7 +11906,7 @@
         <v>62</v>
       </c>
       <c r="N262">
-        <v>333</v>
+        <v>8</v>
       </c>
     </row>
     <row r="263" spans="1:14">
@@ -11950,7 +11950,7 @@
         <v>56</v>
       </c>
       <c r="N263">
-        <v>342</v>
+        <v>8</v>
       </c>
     </row>
     <row r="264" spans="1:14">
@@ -11994,7 +11994,7 @@
         <v>51</v>
       </c>
       <c r="N264">
-        <v>338</v>
+        <v>6</v>
       </c>
     </row>
     <row r="265" spans="1:14">
@@ -12038,7 +12038,7 @@
         <v>50</v>
       </c>
       <c r="N265">
-        <v>338</v>
+        <v>4</v>
       </c>
     </row>
     <row r="266" spans="1:14">
@@ -12082,7 +12082,7 @@
         <v>46</v>
       </c>
       <c r="N266">
-        <v>353</v>
+        <v>4</v>
       </c>
     </row>
     <row r="267" spans="1:14">
@@ -12126,7 +12126,7 @@
         <v>119</v>
       </c>
       <c r="N267">
-        <v>376</v>
+        <v>36</v>
       </c>
     </row>
     <row r="268" spans="1:14">
@@ -12170,7 +12170,7 @@
         <v>101</v>
       </c>
       <c r="N268">
-        <v>373</v>
+        <v>19</v>
       </c>
     </row>
     <row r="269" spans="1:14">
@@ -12214,7 +12214,7 @@
         <v>118</v>
       </c>
       <c r="N269">
-        <v>364</v>
+        <v>24</v>
       </c>
     </row>
     <row r="270" spans="1:14">
@@ -12258,7 +12258,7 @@
         <v>107</v>
       </c>
       <c r="N270">
-        <v>358</v>
+        <v>25</v>
       </c>
     </row>
     <row r="271" spans="1:14">
@@ -12302,7 +12302,7 @@
         <v>140</v>
       </c>
       <c r="N271">
-        <v>380</v>
+        <v>40</v>
       </c>
     </row>
     <row r="272" spans="1:14">
@@ -12346,7 +12346,7 @@
         <v>140</v>
       </c>
       <c r="N272">
-        <v>395</v>
+        <v>35</v>
       </c>
     </row>
     <row r="273" spans="1:14">
@@ -12390,7 +12390,7 @@
         <v>139</v>
       </c>
       <c r="N273">
-        <v>389</v>
+        <v>41</v>
       </c>
     </row>
     <row r="274" spans="1:14">
@@ -12434,7 +12434,7 @@
         <v>140</v>
       </c>
       <c r="N274">
-        <v>404</v>
+        <v>41</v>
       </c>
     </row>
     <row r="275" spans="1:14">
@@ -12478,7 +12478,7 @@
         <v>149</v>
       </c>
       <c r="N275">
-        <v>401</v>
+        <v>45</v>
       </c>
     </row>
     <row r="276" spans="1:14">
@@ -12522,7 +12522,7 @@
         <v>155</v>
       </c>
       <c r="N276">
-        <v>410</v>
+        <v>48</v>
       </c>
     </row>
     <row r="277" spans="1:14">
@@ -12566,7 +12566,7 @@
         <v>166</v>
       </c>
       <c r="N277">
-        <v>408</v>
+        <v>47</v>
       </c>
     </row>
     <row r="278" spans="1:14">
@@ -12610,7 +12610,7 @@
         <v>140</v>
       </c>
       <c r="N278">
-        <v>419</v>
+        <v>40</v>
       </c>
     </row>
     <row r="279" spans="1:14">
@@ -12654,7 +12654,7 @@
         <v>150</v>
       </c>
       <c r="N279">
-        <v>409</v>
+        <v>45</v>
       </c>
     </row>
     <row r="280" spans="1:14">
@@ -12698,7 +12698,7 @@
         <v>96</v>
       </c>
       <c r="N280">
-        <v>371</v>
+        <v>34</v>
       </c>
     </row>
     <row r="281" spans="1:14">
@@ -12742,7 +12742,7 @@
         <v>101</v>
       </c>
       <c r="N281">
-        <v>377</v>
+        <v>37</v>
       </c>
     </row>
     <row r="282" spans="1:14">
@@ -12786,7 +12786,7 @@
         <v>93</v>
       </c>
       <c r="N282">
-        <v>373</v>
+        <v>34</v>
       </c>
     </row>
     <row r="283" spans="1:14">
@@ -12830,7 +12830,7 @@
         <v>109</v>
       </c>
       <c r="N283">
-        <v>370</v>
+        <v>43</v>
       </c>
     </row>
     <row r="284" spans="1:14">
@@ -12874,7 +12874,7 @@
         <v>109</v>
       </c>
       <c r="N284">
-        <v>376</v>
+        <v>35</v>
       </c>
     </row>
     <row r="285" spans="1:14">
@@ -12918,7 +12918,7 @@
         <v>108</v>
       </c>
       <c r="N285">
-        <v>363</v>
+        <v>41</v>
       </c>
     </row>
     <row r="286" spans="1:14">
@@ -12962,7 +12962,7 @@
         <v>101</v>
       </c>
       <c r="N286">
-        <v>382</v>
+        <v>34</v>
       </c>
     </row>
     <row r="287" spans="1:14">
@@ -13006,7 +13006,7 @@
         <v>101</v>
       </c>
       <c r="N287">
-        <v>371</v>
+        <v>32</v>
       </c>
     </row>
     <row r="288" spans="1:14">
@@ -13050,7 +13050,7 @@
         <v>102</v>
       </c>
       <c r="N288">
-        <v>375</v>
+        <v>38</v>
       </c>
     </row>
     <row r="289" spans="1:14">
@@ -13094,7 +13094,7 @@
         <v>98</v>
       </c>
       <c r="N289">
-        <v>363</v>
+        <v>40</v>
       </c>
     </row>
     <row r="290" spans="1:14">
@@ -13138,7 +13138,7 @@
         <v>97</v>
       </c>
       <c r="N290">
-        <v>375</v>
+        <v>30</v>
       </c>
     </row>
     <row r="291" spans="1:14">
@@ -13182,7 +13182,7 @@
         <v>92</v>
       </c>
       <c r="N291">
-        <v>388</v>
+        <v>27</v>
       </c>
     </row>
     <row r="292" spans="1:14">
@@ -13226,7 +13226,7 @@
         <v>73</v>
       </c>
       <c r="N292">
-        <v>340</v>
+        <v>10</v>
       </c>
     </row>
     <row r="293" spans="1:14">
@@ -13270,7 +13270,7 @@
         <v>73</v>
       </c>
       <c r="N293">
-        <v>340</v>
+        <v>10</v>
       </c>
     </row>
     <row r="294" spans="1:14">
@@ -13314,7 +13314,7 @@
         <v>69</v>
       </c>
       <c r="N294">
-        <v>353</v>
+        <v>8</v>
       </c>
     </row>
     <row r="295" spans="1:14">
@@ -13358,7 +13358,7 @@
         <v>66</v>
       </c>
       <c r="N295">
-        <v>343</v>
+        <v>9</v>
       </c>
     </row>
     <row r="296" spans="1:14">
@@ -13402,7 +13402,7 @@
         <v>89</v>
       </c>
       <c r="N296">
-        <v>346</v>
+        <v>41</v>
       </c>
     </row>
     <row r="297" spans="1:14">
@@ -13446,7 +13446,7 @@
         <v>90</v>
       </c>
       <c r="N297">
-        <v>353</v>
+        <v>37</v>
       </c>
     </row>
     <row r="298" spans="1:14">
@@ -13490,7 +13490,7 @@
         <v>89</v>
       </c>
       <c r="N298">
-        <v>345</v>
+        <v>40</v>
       </c>
     </row>
     <row r="299" spans="1:14">
@@ -13534,7 +13534,7 @@
         <v>97</v>
       </c>
       <c r="N299">
-        <v>357</v>
+        <v>44</v>
       </c>
     </row>
     <row r="300" spans="1:14">
@@ -13578,7 +13578,7 @@
         <v>107</v>
       </c>
       <c r="N300">
-        <v>372</v>
+        <v>38</v>
       </c>
     </row>
     <row r="301" spans="1:14">
@@ -13622,7 +13622,7 @@
         <v>80</v>
       </c>
       <c r="N301">
-        <v>356</v>
+        <v>41</v>
       </c>
     </row>
     <row r="302" spans="1:14">
@@ -13666,7 +13666,7 @@
         <v>70</v>
       </c>
       <c r="N302">
-        <v>383</v>
+        <v>27</v>
       </c>
     </row>
     <row r="303" spans="1:14">
@@ -13710,7 +13710,7 @@
         <v>97</v>
       </c>
       <c r="N303">
-        <v>365</v>
+        <v>37</v>
       </c>
     </row>
     <row r="304" spans="1:14">
@@ -13754,7 +13754,7 @@
         <v>104</v>
       </c>
       <c r="N304">
-        <v>365</v>
+        <v>42</v>
       </c>
     </row>
     <row r="305" spans="1:14">
@@ -13798,7 +13798,7 @@
         <v>103</v>
       </c>
       <c r="N305">
-        <v>350</v>
+        <v>45</v>
       </c>
     </row>
     <row r="306" spans="1:14">
@@ -13842,7 +13842,7 @@
         <v>104</v>
       </c>
       <c r="N306">
-        <v>395</v>
+        <v>32</v>
       </c>
     </row>
     <row r="307" spans="1:14">
@@ -13886,7 +13886,7 @@
         <v>96</v>
       </c>
       <c r="N307">
-        <v>349</v>
+        <v>42</v>
       </c>
     </row>
     <row r="308" spans="1:14">
@@ -13930,7 +13930,7 @@
         <v>108</v>
       </c>
       <c r="N308">
-        <v>368</v>
+        <v>40</v>
       </c>
     </row>
     <row r="309" spans="1:14">
@@ -13974,7 +13974,7 @@
         <v>106</v>
       </c>
       <c r="N309">
-        <v>371</v>
+        <v>39</v>
       </c>
     </row>
     <row r="310" spans="1:14">
@@ -14018,7 +14018,7 @@
         <v>114</v>
       </c>
       <c r="N310">
-        <v>363</v>
+        <v>47</v>
       </c>
     </row>
     <row r="311" spans="1:14">
@@ -14062,7 +14062,7 @@
         <v>80</v>
       </c>
       <c r="N311">
-        <v>382</v>
+        <v>35</v>
       </c>
     </row>
     <row r="312" spans="1:14">
@@ -14106,7 +14106,7 @@
         <v>107</v>
       </c>
       <c r="N312">
-        <v>373</v>
+        <v>45</v>
       </c>
     </row>
     <row r="313" spans="1:14">
@@ -14150,7 +14150,7 @@
         <v>91</v>
       </c>
       <c r="N313">
-        <v>403</v>
+        <v>33</v>
       </c>
     </row>
     <row r="314" spans="1:14">
@@ -14194,7 +14194,7 @@
         <v>108</v>
       </c>
       <c r="N314">
-        <v>367</v>
+        <v>41</v>
       </c>
     </row>
     <row r="315" spans="1:14">
@@ -14238,7 +14238,7 @@
         <v>108</v>
       </c>
       <c r="N315">
-        <v>367</v>
+        <v>41</v>
       </c>
     </row>
     <row r="316" spans="1:14">
@@ -14282,7 +14282,7 @@
         <v>112</v>
       </c>
       <c r="N316">
-        <v>372</v>
+        <v>39</v>
       </c>
     </row>
     <row r="317" spans="1:14">
@@ -14326,7 +14326,7 @@
         <v>105</v>
       </c>
       <c r="N317">
-        <v>385</v>
+        <v>45</v>
       </c>
     </row>
     <row r="318" spans="1:14">
@@ -14370,7 +14370,7 @@
         <v>105</v>
       </c>
       <c r="N318">
-        <v>385</v>
+        <v>45</v>
       </c>
     </row>
     <row r="319" spans="1:14">
@@ -14414,7 +14414,7 @@
         <v>102</v>
       </c>
       <c r="N319">
-        <v>389</v>
+        <v>40</v>
       </c>
     </row>
     <row r="320" spans="1:14">
@@ -14458,7 +14458,7 @@
         <v>121</v>
       </c>
       <c r="N320">
-        <v>368</v>
+        <v>44</v>
       </c>
     </row>
     <row r="321" spans="1:14">
@@ -14502,7 +14502,7 @@
         <v>85</v>
       </c>
       <c r="N321">
-        <v>394</v>
+        <v>34</v>
       </c>
     </row>
     <row r="322" spans="1:14">
@@ -14546,7 +14546,7 @@
         <v>103</v>
       </c>
       <c r="N322">
-        <v>388</v>
+        <v>39</v>
       </c>
     </row>
     <row r="323" spans="1:14">
@@ -14590,7 +14590,7 @@
         <v>98</v>
       </c>
       <c r="N323">
-        <v>386</v>
+        <v>43</v>
       </c>
     </row>
     <row r="324" spans="1:14">
@@ -14634,7 +14634,7 @@
         <v>118</v>
       </c>
       <c r="N324">
-        <v>358</v>
+        <v>50</v>
       </c>
     </row>
     <row r="325" spans="1:14">
@@ -14678,7 +14678,7 @@
         <v>106</v>
       </c>
       <c r="N325">
-        <v>404</v>
+        <v>44</v>
       </c>
     </row>
     <row r="326" spans="1:14">
@@ -14722,7 +14722,7 @@
         <v>131</v>
       </c>
       <c r="N326">
-        <v>383</v>
+        <v>44</v>
       </c>
     </row>
     <row r="327" spans="1:14">
@@ -14766,7 +14766,7 @@
         <v>141</v>
       </c>
       <c r="N327">
-        <v>389</v>
+        <v>50</v>
       </c>
     </row>
     <row r="328" spans="1:14">
@@ -14810,7 +14810,7 @@
         <v>97</v>
       </c>
       <c r="N328">
-        <v>393</v>
+        <v>37</v>
       </c>
     </row>
     <row r="329" spans="1:14">
@@ -14854,7 +14854,7 @@
         <v>67</v>
       </c>
       <c r="N329">
-        <v>307</v>
+        <v>17</v>
       </c>
     </row>
     <row r="330" spans="1:14">
@@ -14898,7 +14898,7 @@
         <v>68</v>
       </c>
       <c r="N330">
-        <v>340</v>
+        <v>28</v>
       </c>
     </row>
     <row r="331" spans="1:14">
@@ -14942,7 +14942,7 @@
         <v>74</v>
       </c>
       <c r="N331">
-        <v>337</v>
+        <v>33</v>
       </c>
     </row>
     <row r="332" spans="1:14">
@@ -14986,7 +14986,7 @@
         <v>79</v>
       </c>
       <c r="N332">
-        <v>356</v>
+        <v>30</v>
       </c>
     </row>
     <row r="333" spans="1:14">
@@ -15030,7 +15030,7 @@
         <v>76</v>
       </c>
       <c r="N333">
-        <v>359</v>
+        <v>26</v>
       </c>
     </row>
     <row r="334" spans="1:14">
@@ -15074,7 +15074,7 @@
         <v>80</v>
       </c>
       <c r="N334">
-        <v>361</v>
+        <v>36</v>
       </c>
     </row>
     <row r="335" spans="1:14">
@@ -15118,7 +15118,7 @@
         <v>79</v>
       </c>
       <c r="N335">
-        <v>356</v>
+        <v>31</v>
       </c>
     </row>
     <row r="336" spans="1:14">
@@ -15162,7 +15162,7 @@
         <v>79</v>
       </c>
       <c r="N336">
-        <v>356</v>
+        <v>31</v>
       </c>
     </row>
     <row r="337" spans="1:14">
@@ -15206,7 +15206,7 @@
         <v>80</v>
       </c>
       <c r="N337">
-        <v>362</v>
+        <v>35</v>
       </c>
     </row>
     <row r="338" spans="1:14">
@@ -15250,7 +15250,7 @@
         <v>90</v>
       </c>
       <c r="N338">
-        <v>360</v>
+        <v>30</v>
       </c>
     </row>
     <row r="339" spans="1:14">
@@ -15294,7 +15294,7 @@
         <v>82</v>
       </c>
       <c r="N339">
-        <v>360</v>
+        <v>28</v>
       </c>
     </row>
     <row r="340" spans="1:14">
@@ -15338,7 +15338,7 @@
         <v>78</v>
       </c>
       <c r="N340">
-        <v>357</v>
+        <v>31</v>
       </c>
     </row>
     <row r="341" spans="1:14">
@@ -15382,7 +15382,7 @@
         <v>76</v>
       </c>
       <c r="N341">
-        <v>362</v>
+        <v>35</v>
       </c>
     </row>
     <row r="342" spans="1:14">
@@ -15426,7 +15426,7 @@
         <v>79</v>
       </c>
       <c r="N342">
-        <v>355</v>
+        <v>33</v>
       </c>
     </row>
     <row r="343" spans="1:14">
@@ -15470,7 +15470,7 @@
         <v>93</v>
       </c>
       <c r="N343">
-        <v>356</v>
+        <v>31</v>
       </c>
     </row>
     <row r="344" spans="1:14">
@@ -15514,7 +15514,7 @@
         <v>86</v>
       </c>
       <c r="N344">
-        <v>371</v>
+        <v>35</v>
       </c>
     </row>
     <row r="345" spans="1:14">
@@ -15558,7 +15558,7 @@
         <v>91</v>
       </c>
       <c r="N345">
-        <v>375</v>
+        <v>32</v>
       </c>
     </row>
     <row r="346" spans="1:14">
@@ -15602,7 +15602,7 @@
         <v>107</v>
       </c>
       <c r="N346">
-        <v>383</v>
+        <v>31</v>
       </c>
     </row>
     <row r="347" spans="1:14">
@@ -15646,7 +15646,7 @@
         <v>86</v>
       </c>
       <c r="N347">
-        <v>379</v>
+        <v>27</v>
       </c>
     </row>
     <row r="348" spans="1:14">
@@ -15690,7 +15690,7 @@
         <v>75</v>
       </c>
       <c r="N348">
-        <v>346</v>
+        <v>10</v>
       </c>
     </row>
     <row r="349" spans="1:14">
@@ -15734,7 +15734,7 @@
         <v>131</v>
       </c>
       <c r="N349">
-        <v>367</v>
+        <v>79</v>
       </c>
     </row>
     <row r="350" spans="1:14">
@@ -15778,7 +15778,7 @@
         <v>128</v>
       </c>
       <c r="N350">
-        <v>375</v>
+        <v>75</v>
       </c>
     </row>
     <row r="351" spans="1:14">
@@ -15822,7 +15822,7 @@
         <v>115</v>
       </c>
       <c r="N351">
-        <v>317</v>
+        <v>83</v>
       </c>
     </row>
     <row r="352" spans="1:14">
@@ -15866,7 +15866,7 @@
         <v>118</v>
       </c>
       <c r="N352">
-        <v>305</v>
+        <v>90</v>
       </c>
     </row>
     <row r="353" spans="1:14">
@@ -15910,7 +15910,7 @@
         <v>132</v>
       </c>
       <c r="N353">
-        <v>295</v>
+        <v>103</v>
       </c>
     </row>
     <row r="354" spans="1:14">
@@ -15954,7 +15954,7 @@
         <v>114</v>
       </c>
       <c r="N354">
-        <v>299</v>
+        <v>86</v>
       </c>
     </row>
     <row r="355" spans="1:14">
@@ -15998,7 +15998,7 @@
         <v>109</v>
       </c>
       <c r="N355">
-        <v>322</v>
+        <v>76</v>
       </c>
     </row>
     <row r="356" spans="1:14">
@@ -16042,7 +16042,7 @@
         <v>116</v>
       </c>
       <c r="N356">
-        <v>315</v>
+        <v>89</v>
       </c>
     </row>
     <row r="357" spans="1:14">
@@ -16086,7 +16086,7 @@
         <v>131</v>
       </c>
       <c r="N357">
-        <v>305</v>
+        <v>95</v>
       </c>
     </row>
     <row r="358" spans="1:14">
@@ -16130,7 +16130,7 @@
         <v>110</v>
       </c>
       <c r="N358">
-        <v>303</v>
+        <v>85</v>
       </c>
     </row>
     <row r="359" spans="1:14">
@@ -16174,7 +16174,7 @@
         <v>116</v>
       </c>
       <c r="N359">
-        <v>334</v>
+        <v>75</v>
       </c>
     </row>
     <row r="360" spans="1:14">
@@ -16218,7 +16218,7 @@
         <v>116</v>
       </c>
       <c r="N360">
-        <v>338</v>
+        <v>79</v>
       </c>
     </row>
     <row r="361" spans="1:14">
@@ -16262,7 +16262,7 @@
         <v>120</v>
       </c>
       <c r="N361">
-        <v>319</v>
+        <v>93</v>
       </c>
     </row>
     <row r="362" spans="1:14">
@@ -16306,7 +16306,7 @@
         <v>139</v>
       </c>
       <c r="N362">
-        <v>302</v>
+        <v>103</v>
       </c>
     </row>
     <row r="363" spans="1:14">
@@ -16350,7 +16350,7 @@
         <v>119</v>
       </c>
       <c r="N363">
-        <v>340</v>
+        <v>72</v>
       </c>
     </row>
     <row r="364" spans="1:14">
@@ -16394,7 +16394,7 @@
         <v>141</v>
       </c>
       <c r="N364">
-        <v>329</v>
+        <v>95</v>
       </c>
     </row>
     <row r="365" spans="1:14">
@@ -16438,7 +16438,7 @@
         <v>137</v>
       </c>
       <c r="N365">
-        <v>332</v>
+        <v>81</v>
       </c>
     </row>
     <row r="366" spans="1:14">
@@ -16482,7 +16482,7 @@
         <v>136</v>
       </c>
       <c r="N366">
-        <v>346</v>
+        <v>74</v>
       </c>
     </row>
     <row r="367" spans="1:14">
@@ -16526,7 +16526,7 @@
         <v>115</v>
       </c>
       <c r="N367">
-        <v>296</v>
+        <v>46</v>
       </c>
     </row>
     <row r="368" spans="1:14">
@@ -16570,7 +16570,7 @@
         <v>128</v>
       </c>
       <c r="N368">
-        <v>321</v>
+        <v>93</v>
       </c>
     </row>
     <row r="369" spans="1:14">
@@ -16614,7 +16614,7 @@
         <v>130</v>
       </c>
       <c r="N369">
-        <v>326</v>
+        <v>87</v>
       </c>
     </row>
     <row r="370" spans="1:14">
@@ -16658,7 +16658,7 @@
         <v>129</v>
       </c>
       <c r="N370">
-        <v>318</v>
+        <v>90</v>
       </c>
     </row>
     <row r="371" spans="1:14">
@@ -16702,7 +16702,7 @@
         <v>96</v>
       </c>
       <c r="N371">
-        <v>336</v>
+        <v>55</v>
       </c>
     </row>
     <row r="372" spans="1:14">
@@ -16746,7 +16746,7 @@
         <v>96</v>
       </c>
       <c r="N372">
-        <v>336</v>
+        <v>55</v>
       </c>
     </row>
     <row r="373" spans="1:14">
@@ -16790,7 +16790,7 @@
         <v>93</v>
       </c>
       <c r="N373">
-        <v>297</v>
+        <v>75</v>
       </c>
     </row>
     <row r="374" spans="1:14">
@@ -16834,7 +16834,7 @@
         <v>91</v>
       </c>
       <c r="N374">
-        <v>314</v>
+        <v>58</v>
       </c>
     </row>
     <row r="375" spans="1:14">
@@ -16878,7 +16878,7 @@
         <v>95</v>
       </c>
       <c r="N375">
-        <v>297</v>
+        <v>70</v>
       </c>
     </row>
     <row r="376" spans="1:14">
@@ -16922,7 +16922,7 @@
         <v>113</v>
       </c>
       <c r="N376">
-        <v>310</v>
+        <v>76</v>
       </c>
     </row>
     <row r="377" spans="1:14">
@@ -16966,7 +16966,7 @@
         <v>117</v>
       </c>
       <c r="N377">
-        <v>301</v>
+        <v>89</v>
       </c>
     </row>
     <row r="378" spans="1:14">
@@ -17010,7 +17010,7 @@
         <v>115</v>
       </c>
       <c r="N378">
-        <v>337</v>
+        <v>57</v>
       </c>
     </row>
     <row r="379" spans="1:14">
@@ -17054,7 +17054,7 @@
         <v>102</v>
       </c>
       <c r="N379">
-        <v>331</v>
+        <v>60</v>
       </c>
     </row>
     <row r="380" spans="1:14">
@@ -17098,7 +17098,7 @@
         <v>107</v>
       </c>
       <c r="N380">
-        <v>329</v>
+        <v>64</v>
       </c>
     </row>
     <row r="381" spans="1:14">
@@ -17142,7 +17142,7 @@
         <v>106</v>
       </c>
       <c r="N381">
-        <v>306</v>
+        <v>59</v>
       </c>
     </row>
     <row r="382" spans="1:14">
@@ -17186,7 +17186,7 @@
         <v>102</v>
       </c>
       <c r="N382">
-        <v>306</v>
+        <v>64</v>
       </c>
     </row>
     <row r="383" spans="1:14">
@@ -17230,7 +17230,7 @@
         <v>111</v>
       </c>
       <c r="N383">
-        <v>288</v>
+        <v>69</v>
       </c>
     </row>
     <row r="384" spans="1:14">
@@ -17274,7 +17274,7 @@
         <v>104</v>
       </c>
       <c r="N384">
-        <v>311</v>
+        <v>58</v>
       </c>
     </row>
     <row r="385" spans="1:14">
@@ -17318,7 +17318,7 @@
         <v>100</v>
       </c>
       <c r="N385">
-        <v>303</v>
+        <v>59</v>
       </c>
     </row>
     <row r="386" spans="1:14">
@@ -17362,7 +17362,7 @@
         <v>99</v>
       </c>
       <c r="N386">
-        <v>314</v>
+        <v>66</v>
       </c>
     </row>
     <row r="387" spans="1:14">
@@ -17406,7 +17406,7 @@
         <v>120</v>
       </c>
       <c r="N387">
-        <v>316</v>
+        <v>98</v>
       </c>
     </row>
     <row r="388" spans="1:14">
@@ -17450,7 +17450,7 @@
         <v>112</v>
       </c>
       <c r="N388">
-        <v>320</v>
+        <v>62</v>
       </c>
     </row>
     <row r="389" spans="1:14">
@@ -17494,7 +17494,7 @@
         <v>112</v>
       </c>
       <c r="N389">
-        <v>299</v>
+        <v>76</v>
       </c>
     </row>
     <row r="390" spans="1:14">
@@ -17538,7 +17538,7 @@
         <v>99</v>
       </c>
       <c r="N390">
-        <v>315</v>
+        <v>71</v>
       </c>
     </row>
     <row r="391" spans="1:14">
@@ -17582,7 +17582,7 @@
         <v>93</v>
       </c>
       <c r="N391">
-        <v>317</v>
+        <v>65</v>
       </c>
     </row>
     <row r="392" spans="1:14">
@@ -17626,7 +17626,7 @@
         <v>112</v>
       </c>
       <c r="N392">
-        <v>303</v>
+        <v>82</v>
       </c>
     </row>
     <row r="393" spans="1:14">
@@ -17670,7 +17670,7 @@
         <v>114</v>
       </c>
       <c r="N393">
-        <v>306</v>
+        <v>75</v>
       </c>
     </row>
     <row r="394" spans="1:14">
@@ -17714,7 +17714,7 @@
         <v>116</v>
       </c>
       <c r="N394">
-        <v>310</v>
+        <v>72</v>
       </c>
     </row>
     <row r="395" spans="1:14">
@@ -17758,7 +17758,7 @@
         <v>126</v>
       </c>
       <c r="N395">
-        <v>326</v>
+        <v>102</v>
       </c>
     </row>
     <row r="396" spans="1:14">
@@ -17802,7 +17802,7 @@
         <v>119</v>
       </c>
       <c r="N396">
-        <v>310</v>
+        <v>77</v>
       </c>
     </row>
     <row r="397" spans="1:14">
@@ -17846,7 +17846,7 @@
         <v>130</v>
       </c>
       <c r="N397">
-        <v>329</v>
+        <v>124</v>
       </c>
     </row>
     <row r="398" spans="1:14">
@@ -17890,7 +17890,7 @@
         <v>114</v>
       </c>
       <c r="N398">
-        <v>320</v>
+        <v>64</v>
       </c>
     </row>
     <row r="399" spans="1:14">
@@ -17934,7 +17934,7 @@
         <v>126</v>
       </c>
       <c r="N399">
-        <v>330</v>
+        <v>123</v>
       </c>
     </row>
     <row r="400" spans="1:14">
@@ -17978,7 +17978,7 @@
         <v>128</v>
       </c>
       <c r="N400">
-        <v>333</v>
+        <v>117</v>
       </c>
     </row>
     <row r="401" spans="1:14">
@@ -18022,7 +18022,7 @@
         <v>130</v>
       </c>
       <c r="N401">
-        <v>343</v>
+        <v>118</v>
       </c>
     </row>
     <row r="402" spans="1:14">
@@ -18066,7 +18066,7 @@
         <v>79</v>
       </c>
       <c r="N402">
-        <v>299</v>
+        <v>19</v>
       </c>
     </row>
     <row r="403" spans="1:14">
@@ -18110,7 +18110,7 @@
         <v>81</v>
       </c>
       <c r="N403">
-        <v>306</v>
+        <v>13</v>
       </c>
     </row>
     <row r="404" spans="1:14">
@@ -18154,7 +18154,7 @@
         <v>84</v>
       </c>
       <c r="N404">
-        <v>305</v>
+        <v>29</v>
       </c>
     </row>
     <row r="405" spans="1:14">
@@ -18198,7 +18198,7 @@
         <v>89</v>
       </c>
       <c r="N405">
-        <v>302</v>
+        <v>31</v>
       </c>
     </row>
     <row r="406" spans="1:14">
@@ -18242,7 +18242,7 @@
         <v>89</v>
       </c>
       <c r="N406">
-        <v>302</v>
+        <v>31</v>
       </c>
     </row>
     <row r="407" spans="1:14">
@@ -18286,7 +18286,7 @@
         <v>90</v>
       </c>
       <c r="N407">
-        <v>316</v>
+        <v>18</v>
       </c>
     </row>
     <row r="408" spans="1:14">
@@ -18330,7 +18330,7 @@
         <v>87</v>
       </c>
       <c r="N408">
-        <v>304</v>
+        <v>29</v>
       </c>
     </row>
     <row r="409" spans="1:14">
@@ -18374,7 +18374,7 @@
         <v>97</v>
       </c>
       <c r="N409">
-        <v>328</v>
+        <v>13</v>
       </c>
     </row>
     <row r="410" spans="1:14">
@@ -18418,7 +18418,7 @@
         <v>141</v>
       </c>
       <c r="N410">
-        <v>327</v>
+        <v>130</v>
       </c>
     </row>
     <row r="411" spans="1:14">
@@ -18462,7 +18462,7 @@
         <v>149</v>
       </c>
       <c r="N411">
-        <v>313</v>
+        <v>151</v>
       </c>
     </row>
     <row r="412" spans="1:14">
@@ -18506,7 +18506,7 @@
         <v>81</v>
       </c>
       <c r="N412">
-        <v>306</v>
+        <v>25</v>
       </c>
     </row>
     <row r="413" spans="1:14">
@@ -18550,7 +18550,7 @@
         <v>78</v>
       </c>
       <c r="N413">
-        <v>320</v>
+        <v>11</v>
       </c>
     </row>
     <row r="414" spans="1:14">
@@ -18594,7 +18594,7 @@
         <v>81</v>
       </c>
       <c r="N414">
-        <v>306</v>
+        <v>25</v>
       </c>
     </row>
     <row r="415" spans="1:14">
@@ -18638,7 +18638,7 @@
         <v>78</v>
       </c>
       <c r="N415">
-        <v>320</v>
+        <v>11</v>
       </c>
     </row>
     <row r="416" spans="1:14">
@@ -18682,7 +18682,7 @@
         <v>27</v>
       </c>
       <c r="N416">
-        <v>316</v>
+        <v>9</v>
       </c>
     </row>
     <row r="417" spans="1:14">
@@ -18726,7 +18726,7 @@
         <v>16</v>
       </c>
       <c r="N417">
-        <v>315</v>
+        <v>9</v>
       </c>
     </row>
     <row r="418" spans="1:14">
@@ -18770,7 +18770,7 @@
         <v>40</v>
       </c>
       <c r="N418">
-        <v>361</v>
+        <v>28</v>
       </c>
     </row>
     <row r="419" spans="1:14">
@@ -18814,7 +18814,7 @@
         <v>29</v>
       </c>
       <c r="N419">
-        <v>348</v>
+        <v>25</v>
       </c>
     </row>
     <row r="420" spans="1:14">
@@ -18858,7 +18858,7 @@
         <v>31</v>
       </c>
       <c r="N420">
-        <v>342</v>
+        <v>25</v>
       </c>
     </row>
     <row r="421" spans="1:14">
@@ -18902,7 +18902,7 @@
         <v>36</v>
       </c>
       <c r="N421">
-        <v>345</v>
+        <v>28</v>
       </c>
     </row>
     <row r="422" spans="1:14">
@@ -18946,7 +18946,7 @@
         <v>31</v>
       </c>
       <c r="N422">
-        <v>348</v>
+        <v>25</v>
       </c>
     </row>
     <row r="423" spans="1:14">
@@ -18990,7 +18990,7 @@
         <v>42</v>
       </c>
       <c r="N423">
-        <v>348</v>
+        <v>25</v>
       </c>
     </row>
     <row r="424" spans="1:14">
@@ -19034,7 +19034,7 @@
         <v>46</v>
       </c>
       <c r="N424">
-        <v>362</v>
+        <v>31</v>
       </c>
     </row>
     <row r="425" spans="1:14">
@@ -19078,7 +19078,7 @@
         <v>41</v>
       </c>
       <c r="N425">
-        <v>343</v>
+        <v>30</v>
       </c>
     </row>
     <row r="426" spans="1:14">
@@ -19122,7 +19122,7 @@
         <v>39</v>
       </c>
       <c r="N426">
-        <v>355</v>
+        <v>32</v>
       </c>
     </row>
     <row r="427" spans="1:14">
@@ -19166,7 +19166,7 @@
         <v>47</v>
       </c>
       <c r="N427">
-        <v>352</v>
+        <v>38</v>
       </c>
     </row>
     <row r="428" spans="1:14">
@@ -19210,7 +19210,7 @@
         <v>46</v>
       </c>
       <c r="N428">
-        <v>359</v>
+        <v>34</v>
       </c>
     </row>
     <row r="429" spans="1:14">
@@ -19254,7 +19254,7 @@
         <v>47</v>
       </c>
       <c r="N429">
-        <v>363</v>
+        <v>36</v>
       </c>
     </row>
     <row r="430" spans="1:14">
@@ -19298,7 +19298,7 @@
         <v>41</v>
       </c>
       <c r="N430">
-        <v>355</v>
+        <v>36</v>
       </c>
     </row>
     <row r="431" spans="1:14">
@@ -19342,7 +19342,7 @@
         <v>63</v>
       </c>
       <c r="N431">
-        <v>373</v>
+        <v>57</v>
       </c>
     </row>
     <row r="432" spans="1:14">
@@ -19386,7 +19386,7 @@
         <v>41</v>
       </c>
       <c r="N432">
-        <v>361</v>
+        <v>31</v>
       </c>
     </row>
     <row r="433" spans="1:14">
@@ -19430,7 +19430,7 @@
         <v>44</v>
       </c>
       <c r="N433">
-        <v>366</v>
+        <v>36</v>
       </c>
     </row>
     <row r="434" spans="1:14">
@@ -19474,7 +19474,7 @@
         <v>40</v>
       </c>
       <c r="N434">
-        <v>360</v>
+        <v>33</v>
       </c>
     </row>
     <row r="435" spans="1:14">
@@ -19518,7 +19518,7 @@
         <v>42</v>
       </c>
       <c r="N435">
-        <v>364</v>
+        <v>38</v>
       </c>
     </row>
     <row r="436" spans="1:14">
@@ -19562,7 +19562,7 @@
         <v>41</v>
       </c>
       <c r="N436">
-        <v>360</v>
+        <v>33</v>
       </c>
     </row>
     <row r="437" spans="1:14">
@@ -19606,7 +19606,7 @@
         <v>37</v>
       </c>
       <c r="N437">
-        <v>361</v>
+        <v>31</v>
       </c>
     </row>
     <row r="438" spans="1:14">
@@ -19650,7 +19650,7 @@
         <v>46</v>
       </c>
       <c r="N438">
-        <v>358</v>
+        <v>35</v>
       </c>
     </row>
     <row r="439" spans="1:14">
@@ -19694,7 +19694,7 @@
         <v>60</v>
       </c>
       <c r="N439">
-        <v>372</v>
+        <v>40</v>
       </c>
     </row>
     <row r="440" spans="1:14">
@@ -19738,7 +19738,7 @@
         <v>49</v>
       </c>
       <c r="N440">
-        <v>356</v>
+        <v>36</v>
       </c>
     </row>
     <row r="441" spans="1:14">
@@ -19782,7 +19782,7 @@
         <v>43</v>
       </c>
       <c r="N441">
-        <v>359</v>
+        <v>34</v>
       </c>
     </row>
     <row r="442" spans="1:14">
@@ -19826,7 +19826,7 @@
         <v>51</v>
       </c>
       <c r="N442">
-        <v>339</v>
+        <v>32</v>
       </c>
     </row>
     <row r="443" spans="1:14">
@@ -19870,7 +19870,7 @@
         <v>48</v>
       </c>
       <c r="N443">
-        <v>362</v>
+        <v>31</v>
       </c>
     </row>
     <row r="444" spans="1:14">
@@ -19914,7 +19914,7 @@
         <v>52</v>
       </c>
       <c r="N444">
-        <v>370</v>
+        <v>41</v>
       </c>
     </row>
     <row r="445" spans="1:14">
@@ -19958,7 +19958,7 @@
         <v>60</v>
       </c>
       <c r="N445">
-        <v>373</v>
+        <v>39</v>
       </c>
     </row>
     <row r="446" spans="1:14">
@@ -20002,7 +20002,7 @@
         <v>72</v>
       </c>
       <c r="N446">
-        <v>362</v>
+        <v>48</v>
       </c>
     </row>
     <row r="447" spans="1:14">
@@ -20046,7 +20046,7 @@
         <v>45</v>
       </c>
       <c r="N447">
-        <v>366</v>
+        <v>28</v>
       </c>
     </row>
     <row r="448" spans="1:14">
@@ -20090,7 +20090,7 @@
         <v>54</v>
       </c>
       <c r="N448">
-        <v>374</v>
+        <v>37</v>
       </c>
     </row>
     <row r="449" spans="1:14">
@@ -20134,7 +20134,7 @@
         <v>64</v>
       </c>
       <c r="N449">
-        <v>378</v>
+        <v>43</v>
       </c>
     </row>
     <row r="450" spans="1:14">
@@ -20178,7 +20178,7 @@
         <v>73</v>
       </c>
       <c r="N450">
-        <v>360</v>
+        <v>51</v>
       </c>
     </row>
     <row r="451" spans="1:14">
@@ -20222,7 +20222,7 @@
         <v>50</v>
       </c>
       <c r="N451">
-        <v>356</v>
+        <v>38</v>
       </c>
     </row>
     <row r="452" spans="1:14">
@@ -20266,7 +20266,7 @@
         <v>61</v>
       </c>
       <c r="N452">
-        <v>371</v>
+        <v>39</v>
       </c>
     </row>
     <row r="453" spans="1:14">
@@ -20310,7 +20310,7 @@
         <v>51</v>
       </c>
       <c r="N453">
-        <v>365</v>
+        <v>31</v>
       </c>
     </row>
     <row r="454" spans="1:14">
@@ -20354,7 +20354,7 @@
         <v>63</v>
       </c>
       <c r="N454">
-        <v>369</v>
+        <v>43</v>
       </c>
     </row>
     <row r="455" spans="1:14">
@@ -20398,7 +20398,7 @@
         <v>53</v>
       </c>
       <c r="N455">
-        <v>353</v>
+        <v>40</v>
       </c>
     </row>
     <row r="456" spans="1:14">
@@ -20442,7 +20442,7 @@
         <v>61</v>
       </c>
       <c r="N456">
-        <v>344</v>
+        <v>41</v>
       </c>
     </row>
     <row r="457" spans="1:14">
@@ -20486,7 +20486,7 @@
         <v>52</v>
       </c>
       <c r="N457">
-        <v>361</v>
+        <v>38</v>
       </c>
     </row>
     <row r="458" spans="1:14">
@@ -20530,7 +20530,7 @@
         <v>72</v>
       </c>
       <c r="N458">
-        <v>358</v>
+        <v>48</v>
       </c>
     </row>
     <row r="459" spans="1:14">
@@ -20574,7 +20574,7 @@
         <v>58</v>
       </c>
       <c r="N459">
-        <v>351</v>
+        <v>43</v>
       </c>
     </row>
     <row r="460" spans="1:14">
@@ -20618,7 +20618,7 @@
         <v>61</v>
       </c>
       <c r="N460">
-        <v>347</v>
+        <v>46</v>
       </c>
     </row>
     <row r="461" spans="1:14">
@@ -20662,7 +20662,7 @@
         <v>52</v>
       </c>
       <c r="N461">
-        <v>353</v>
+        <v>40</v>
       </c>
     </row>
     <row r="462" spans="1:14">
@@ -20706,7 +20706,7 @@
         <v>57</v>
       </c>
       <c r="N462">
-        <v>358</v>
+        <v>40</v>
       </c>
     </row>
     <row r="463" spans="1:14">
@@ -20750,7 +20750,7 @@
         <v>55</v>
       </c>
       <c r="N463">
-        <v>350</v>
+        <v>43</v>
       </c>
     </row>
     <row r="464" spans="1:14">
@@ -20794,7 +20794,7 @@
         <v>59</v>
       </c>
       <c r="N464">
-        <v>347</v>
+        <v>47</v>
       </c>
     </row>
     <row r="465" spans="1:14">
@@ -20838,7 +20838,7 @@
         <v>50</v>
       </c>
       <c r="N465">
-        <v>363</v>
+        <v>40</v>
       </c>
     </row>
     <row r="466" spans="1:14">
@@ -20882,7 +20882,7 @@
         <v>52</v>
       </c>
       <c r="N466">
-        <v>352</v>
+        <v>35</v>
       </c>
     </row>
     <row r="467" spans="1:14">
@@ -20926,7 +20926,7 @@
         <v>56</v>
       </c>
       <c r="N467">
-        <v>368</v>
+        <v>43</v>
       </c>
     </row>
     <row r="468" spans="1:14">
@@ -20970,7 +20970,7 @@
         <v>55</v>
       </c>
       <c r="N468">
-        <v>354</v>
+        <v>35</v>
       </c>
     </row>
     <row r="469" spans="1:14">
@@ -21014,7 +21014,7 @@
         <v>49</v>
       </c>
       <c r="N469">
-        <v>363</v>
+        <v>39</v>
       </c>
     </row>
     <row r="470" spans="1:14">
@@ -21058,7 +21058,7 @@
         <v>60</v>
       </c>
       <c r="N470">
-        <v>354</v>
+        <v>39</v>
       </c>
     </row>
     <row r="471" spans="1:14">
@@ -21102,7 +21102,7 @@
         <v>60</v>
       </c>
       <c r="N471">
-        <v>360</v>
+        <v>36</v>
       </c>
     </row>
     <row r="472" spans="1:14">
@@ -21146,7 +21146,7 @@
         <v>67</v>
       </c>
       <c r="N472">
-        <v>335</v>
+        <v>51</v>
       </c>
     </row>
     <row r="473" spans="1:14">
@@ -21190,7 +21190,7 @@
         <v>56</v>
       </c>
       <c r="N473">
-        <v>358</v>
+        <v>41</v>
       </c>
     </row>
     <row r="474" spans="1:14">
@@ -21234,7 +21234,7 @@
         <v>73</v>
       </c>
       <c r="N474">
-        <v>336</v>
+        <v>53</v>
       </c>
     </row>
     <row r="475" spans="1:14">
@@ -21278,7 +21278,7 @@
         <v>80</v>
       </c>
       <c r="N475">
-        <v>377</v>
+        <v>75</v>
       </c>
     </row>
     <row r="476" spans="1:14">
@@ -21322,7 +21322,7 @@
         <v>82</v>
       </c>
       <c r="N476">
-        <v>377</v>
+        <v>77</v>
       </c>
     </row>
     <row r="477" spans="1:14">
@@ -21366,7 +21366,7 @@
         <v>87</v>
       </c>
       <c r="N477">
-        <v>373</v>
+        <v>19</v>
       </c>
     </row>
     <row r="478" spans="1:14">
@@ -21410,7 +21410,7 @@
         <v>96</v>
       </c>
       <c r="N478">
-        <v>393</v>
+        <v>15</v>
       </c>
     </row>
     <row r="479" spans="1:14">
@@ -21454,7 +21454,7 @@
         <v>125</v>
       </c>
       <c r="N479">
-        <v>412</v>
+        <v>31</v>
       </c>
     </row>
     <row r="480" spans="1:14">
@@ -21498,7 +21498,7 @@
         <v>116</v>
       </c>
       <c r="N480">
-        <v>430</v>
+        <v>21</v>
       </c>
     </row>
     <row r="481" spans="1:14">
@@ -21542,7 +21542,7 @@
         <v>113</v>
       </c>
       <c r="N481">
-        <v>376</v>
+        <v>22</v>
       </c>
     </row>
     <row r="482" spans="1:14">
@@ -21586,7 +21586,7 @@
         <v>94</v>
       </c>
       <c r="N482">
-        <v>382</v>
+        <v>16</v>
       </c>
     </row>
     <row r="483" spans="1:14">
@@ -21630,7 +21630,7 @@
         <v>110</v>
       </c>
       <c r="N483">
-        <v>403</v>
+        <v>17</v>
       </c>
     </row>
     <row r="484" spans="1:14">
@@ -21674,7 +21674,7 @@
         <v>99</v>
       </c>
       <c r="N484">
-        <v>393</v>
+        <v>15</v>
       </c>
     </row>
     <row r="485" spans="1:14">
@@ -21718,7 +21718,7 @@
         <v>119</v>
       </c>
       <c r="N485">
-        <v>400</v>
+        <v>19</v>
       </c>
     </row>
     <row r="486" spans="1:14">
@@ -21762,7 +21762,7 @@
         <v>121</v>
       </c>
       <c r="N486">
-        <v>394</v>
+        <v>22</v>
       </c>
     </row>
     <row r="487" spans="1:14">
@@ -21806,7 +21806,7 @@
         <v>107</v>
       </c>
       <c r="N487">
-        <v>410</v>
+        <v>17</v>
       </c>
     </row>
     <row r="488" spans="1:14">
@@ -21850,7 +21850,7 @@
         <v>112</v>
       </c>
       <c r="N488">
-        <v>395</v>
+        <v>16</v>
       </c>
     </row>
     <row r="489" spans="1:14">
@@ -21894,7 +21894,7 @@
         <v>112</v>
       </c>
       <c r="N489">
-        <v>403</v>
+        <v>18</v>
       </c>
     </row>
     <row r="490" spans="1:14">
@@ -21938,7 +21938,7 @@
         <v>78</v>
       </c>
       <c r="N490">
-        <v>396</v>
+        <v>13</v>
       </c>
     </row>
     <row r="491" spans="1:14">
@@ -21982,7 +21982,7 @@
         <v>115</v>
       </c>
       <c r="N491">
-        <v>402</v>
+        <v>15</v>
       </c>
     </row>
     <row r="492" spans="1:14">
@@ -22026,7 +22026,7 @@
         <v>116</v>
       </c>
       <c r="N492">
-        <v>389</v>
+        <v>20</v>
       </c>
     </row>
     <row r="493" spans="1:14">
@@ -22070,7 +22070,7 @@
         <v>91</v>
       </c>
       <c r="N493">
-        <v>395</v>
+        <v>15</v>
       </c>
     </row>
     <row r="494" spans="1:14">
@@ -22114,7 +22114,7 @@
         <v>91</v>
       </c>
       <c r="N494">
-        <v>402</v>
+        <v>18</v>
       </c>
     </row>
     <row r="495" spans="1:14">
@@ -22158,7 +22158,7 @@
         <v>128</v>
       </c>
       <c r="N495">
-        <v>395</v>
+        <v>20</v>
       </c>
     </row>
     <row r="496" spans="1:14">
@@ -22202,7 +22202,7 @@
         <v>99</v>
       </c>
       <c r="N496">
-        <v>411</v>
+        <v>18</v>
       </c>
     </row>
     <row r="497" spans="1:14">
@@ -22246,7 +22246,7 @@
         <v>126</v>
       </c>
       <c r="N497">
-        <v>395</v>
+        <v>22</v>
       </c>
     </row>
     <row r="498" spans="1:14">
@@ -22290,7 +22290,7 @@
         <v>93</v>
       </c>
       <c r="N498">
-        <v>393</v>
+        <v>18</v>
       </c>
     </row>
     <row r="499" spans="1:14">
@@ -22334,7 +22334,7 @@
         <v>130</v>
       </c>
       <c r="N499">
-        <v>394</v>
+        <v>25</v>
       </c>
     </row>
     <row r="500" spans="1:14">
@@ -22378,7 +22378,7 @@
         <v>138</v>
       </c>
       <c r="N500">
-        <v>435</v>
+        <v>28</v>
       </c>
     </row>
     <row r="501" spans="1:14">
@@ -22422,7 +22422,7 @@
         <v>104</v>
       </c>
       <c r="N501">
-        <v>393</v>
+        <v>18</v>
       </c>
     </row>
     <row r="502" spans="1:14">
@@ -22466,7 +22466,7 @@
         <v>125</v>
       </c>
       <c r="N502">
-        <v>396</v>
+        <v>22</v>
       </c>
     </row>
     <row r="503" spans="1:14">
@@ -22510,7 +22510,7 @@
         <v>125</v>
       </c>
       <c r="N503">
-        <v>391</v>
+        <v>19</v>
       </c>
     </row>
     <row r="504" spans="1:14">
@@ -22554,7 +22554,7 @@
         <v>96</v>
       </c>
       <c r="N504">
-        <v>394</v>
+        <v>17</v>
       </c>
     </row>
     <row r="505" spans="1:14">
@@ -22598,7 +22598,7 @@
         <v>106</v>
       </c>
       <c r="N505">
-        <v>391</v>
+        <v>19</v>
       </c>
     </row>
     <row r="506" spans="1:14">
@@ -22642,7 +22642,7 @@
         <v>125</v>
       </c>
       <c r="N506">
-        <v>396</v>
+        <v>23</v>
       </c>
     </row>
     <row r="507" spans="1:14">
@@ -22686,7 +22686,7 @@
         <v>101</v>
       </c>
       <c r="N507">
-        <v>402</v>
+        <v>18</v>
       </c>
     </row>
     <row r="508" spans="1:14">
@@ -22730,7 +22730,7 @@
         <v>133</v>
       </c>
       <c r="N508">
-        <v>422</v>
+        <v>34</v>
       </c>
     </row>
     <row r="509" spans="1:14">
@@ -22774,7 +22774,7 @@
         <v>124</v>
       </c>
       <c r="N509">
-        <v>401</v>
+        <v>19</v>
       </c>
     </row>
     <row r="510" spans="1:14">
@@ -22818,7 +22818,7 @@
         <v>103</v>
       </c>
       <c r="N510">
-        <v>391</v>
+        <v>19</v>
       </c>
     </row>
     <row r="511" spans="1:14">
@@ -22862,7 +22862,7 @@
         <v>113</v>
       </c>
       <c r="N511">
-        <v>410</v>
+        <v>19</v>
       </c>
     </row>
     <row r="512" spans="1:14">
@@ -22906,7 +22906,7 @@
         <v>104</v>
       </c>
       <c r="N512">
-        <v>401</v>
+        <v>19</v>
       </c>
     </row>
     <row r="513" spans="1:14">
@@ -22950,7 +22950,7 @@
         <v>126</v>
       </c>
       <c r="N513">
-        <v>391</v>
+        <v>19</v>
       </c>
     </row>
     <row r="514" spans="1:14">
@@ -22994,7 +22994,7 @@
         <v>116</v>
       </c>
       <c r="N514">
-        <v>398</v>
+        <v>19</v>
       </c>
     </row>
     <row r="515" spans="1:14">
@@ -23038,7 +23038,7 @@
         <v>124</v>
       </c>
       <c r="N515">
-        <v>399</v>
+        <v>20</v>
       </c>
     </row>
     <row r="516" spans="1:14">
@@ -23082,7 +23082,7 @@
         <v>125</v>
       </c>
       <c r="N516">
-        <v>384</v>
+        <v>22</v>
       </c>
     </row>
     <row r="517" spans="1:14">
@@ -23126,7 +23126,7 @@
         <v>125</v>
       </c>
       <c r="N517">
-        <v>402</v>
+        <v>19</v>
       </c>
     </row>
     <row r="518" spans="1:14">
@@ -23170,7 +23170,7 @@
         <v>60</v>
       </c>
       <c r="N518">
-        <v>379</v>
+        <v>13</v>
       </c>
     </row>
     <row r="519" spans="1:14">
@@ -23214,7 +23214,7 @@
         <v>64</v>
       </c>
       <c r="N519">
-        <v>378</v>
+        <v>16</v>
       </c>
     </row>
     <row r="520" spans="1:14">
@@ -23258,7 +23258,7 @@
         <v>75</v>
       </c>
       <c r="N520">
-        <v>384</v>
+        <v>17</v>
       </c>
     </row>
     <row r="521" spans="1:14">
@@ -23302,7 +23302,7 @@
         <v>67</v>
       </c>
       <c r="N521">
-        <v>393</v>
+        <v>16</v>
       </c>
     </row>
     <row r="522" spans="1:14">
@@ -23346,7 +23346,7 @@
         <v>67</v>
       </c>
       <c r="N522">
-        <v>393</v>
+        <v>16</v>
       </c>
     </row>
     <row r="523" spans="1:14">
@@ -23390,7 +23390,7 @@
         <v>75</v>
       </c>
       <c r="N523">
-        <v>390</v>
+        <v>18</v>
       </c>
     </row>
     <row r="524" spans="1:14">
@@ -23434,7 +23434,7 @@
         <v>71</v>
       </c>
       <c r="N524">
-        <v>373</v>
+        <v>17</v>
       </c>
     </row>
     <row r="525" spans="1:14">
@@ -23478,7 +23478,7 @@
         <v>73</v>
       </c>
       <c r="N525">
-        <v>390</v>
+        <v>18</v>
       </c>
     </row>
     <row r="526" spans="1:14">
@@ -23522,7 +23522,7 @@
         <v>74</v>
       </c>
       <c r="N526">
-        <v>397</v>
+        <v>13</v>
       </c>
     </row>
     <row r="527" spans="1:14">
@@ -23566,7 +23566,7 @@
         <v>73</v>
       </c>
       <c r="N527">
-        <v>396</v>
+        <v>15</v>
       </c>
     </row>
     <row r="528" spans="1:14">
@@ -23610,7 +23610,7 @@
         <v>91</v>
       </c>
       <c r="N528">
-        <v>391</v>
+        <v>17</v>
       </c>
     </row>
     <row r="529" spans="1:14">
@@ -23654,7 +23654,7 @@
         <v>69</v>
       </c>
       <c r="N529">
-        <v>392</v>
+        <v>17</v>
       </c>
     </row>
     <row r="530" spans="1:14">
@@ -23698,7 +23698,7 @@
         <v>72</v>
       </c>
       <c r="N530">
-        <v>402</v>
+        <v>17</v>
       </c>
     </row>
     <row r="531" spans="1:14">
@@ -23742,7 +23742,7 @@
         <v>57</v>
       </c>
       <c r="N531">
-        <v>359</v>
+        <v>5</v>
       </c>
     </row>
     <row r="532" spans="1:14">
@@ -23786,7 +23786,7 @@
         <v>69</v>
       </c>
       <c r="N532">
-        <v>393</v>
+        <v>17</v>
       </c>
     </row>
     <row r="533" spans="1:14">
@@ -23830,7 +23830,7 @@
         <v>69</v>
       </c>
       <c r="N533">
-        <v>393</v>
+        <v>17</v>
       </c>
     </row>
     <row r="534" spans="1:14">
@@ -23874,7 +23874,7 @@
         <v>92</v>
       </c>
       <c r="N534">
-        <v>396</v>
+        <v>22</v>
       </c>
     </row>
     <row r="535" spans="1:14">
@@ -23918,7 +23918,7 @@
         <v>71</v>
       </c>
       <c r="N535">
-        <v>393</v>
+        <v>17</v>
       </c>
     </row>
     <row r="536" spans="1:14">
@@ -23962,7 +23962,7 @@
         <v>58</v>
       </c>
       <c r="N536">
-        <v>353</v>
+        <v>6</v>
       </c>
     </row>
     <row r="537" spans="1:14">
@@ -24006,7 +24006,7 @@
         <v>77</v>
       </c>
       <c r="N537">
-        <v>401</v>
+        <v>17</v>
       </c>
     </row>
     <row r="538" spans="1:14">
@@ -24050,7 +24050,7 @@
         <v>124</v>
       </c>
       <c r="N538">
-        <v>427</v>
+        <v>31</v>
       </c>
     </row>
     <row r="539" spans="1:14">
@@ -24094,7 +24094,7 @@
         <v>122</v>
       </c>
       <c r="N539">
-        <v>431</v>
+        <v>29</v>
       </c>
     </row>
     <row r="540" spans="1:14">
@@ -24138,7 +24138,7 @@
         <v>117</v>
       </c>
       <c r="N540">
-        <v>430</v>
+        <v>27</v>
       </c>
     </row>
     <row r="541" spans="1:14">
@@ -24182,7 +24182,7 @@
         <v>94</v>
       </c>
       <c r="N541">
-        <v>325</v>
+        <v>62</v>
       </c>
     </row>
     <row r="542" spans="1:14">
@@ -24226,7 +24226,7 @@
         <v>86</v>
       </c>
       <c r="N542">
-        <v>344</v>
+        <v>47</v>
       </c>
     </row>
     <row r="543" spans="1:14">
@@ -24270,7 +24270,7 @@
         <v>86</v>
       </c>
       <c r="N543">
-        <v>344</v>
+        <v>47</v>
       </c>
     </row>
     <row r="544" spans="1:14">
@@ -24314,7 +24314,7 @@
         <v>92</v>
       </c>
       <c r="N544">
-        <v>343</v>
+        <v>35</v>
       </c>
     </row>
     <row r="545" spans="1:14">
@@ -24358,7 +24358,7 @@
         <v>77</v>
       </c>
       <c r="N545">
-        <v>337</v>
+        <v>41</v>
       </c>
     </row>
     <row r="546" spans="1:14">
@@ -24402,7 +24402,7 @@
         <v>87</v>
       </c>
       <c r="N546">
-        <v>353</v>
+        <v>41</v>
       </c>
     </row>
     <row r="547" spans="1:14">
@@ -24446,7 +24446,7 @@
         <v>82</v>
       </c>
       <c r="N547">
-        <v>358</v>
+        <v>40</v>
       </c>
     </row>
     <row r="548" spans="1:14">
@@ -24490,7 +24490,7 @@
         <v>78</v>
       </c>
       <c r="N548">
-        <v>355</v>
+        <v>40</v>
       </c>
     </row>
     <row r="549" spans="1:14">
@@ -24534,7 +24534,7 @@
         <v>64</v>
       </c>
       <c r="N549">
-        <v>338</v>
+        <v>13</v>
       </c>
     </row>
     <row r="550" spans="1:14">
@@ -24578,7 +24578,7 @@
         <v>63</v>
       </c>
       <c r="N550">
-        <v>304</v>
+        <v>11</v>
       </c>
     </row>
     <row r="551" spans="1:14">
@@ -24622,7 +24622,7 @@
         <v>60</v>
       </c>
       <c r="N551">
-        <v>297</v>
+        <v>13</v>
       </c>
     </row>
     <row r="552" spans="1:14">
@@ -24666,7 +24666,7 @@
         <v>59</v>
       </c>
       <c r="N552">
-        <v>298</v>
+        <v>11</v>
       </c>
     </row>
     <row r="553" spans="1:14">
@@ -24710,7 +24710,7 @@
         <v>58</v>
       </c>
       <c r="N553">
-        <v>302</v>
+        <v>9</v>
       </c>
     </row>
     <row r="554" spans="1:14">
@@ -24754,7 +24754,7 @@
         <v>58</v>
       </c>
       <c r="N554">
-        <v>302</v>
+        <v>9</v>
       </c>
     </row>
     <row r="555" spans="1:14">
@@ -24798,7 +24798,7 @@
         <v>73</v>
       </c>
       <c r="N555">
-        <v>308</v>
+        <v>20</v>
       </c>
     </row>
     <row r="556" spans="1:14">
@@ -24842,7 +24842,7 @@
         <v>68</v>
       </c>
       <c r="N556">
-        <v>314</v>
+        <v>11</v>
       </c>
     </row>
     <row r="557" spans="1:14">
@@ -24886,7 +24886,7 @@
         <v>70</v>
       </c>
       <c r="N557">
-        <v>306</v>
+        <v>20</v>
       </c>
     </row>
     <row r="558" spans="1:14">
@@ -24930,7 +24930,7 @@
         <v>62</v>
       </c>
       <c r="N558">
-        <v>302</v>
+        <v>9</v>
       </c>
     </row>
     <row r="559" spans="1:14">
@@ -24974,7 +24974,7 @@
         <v>68</v>
       </c>
       <c r="N559">
-        <v>322</v>
+        <v>13</v>
       </c>
     </row>
     <row r="560" spans="1:14">
@@ -25018,7 +25018,7 @@
         <v>59</v>
       </c>
       <c r="N560">
-        <v>322</v>
+        <v>9</v>
       </c>
     </row>
     <row r="561" spans="1:14">
@@ -25062,7 +25062,7 @@
         <v>60</v>
       </c>
       <c r="N561">
-        <v>329</v>
+        <v>10</v>
       </c>
     </row>
     <row r="562" spans="1:14">
@@ -25106,7 +25106,7 @@
         <v>52</v>
       </c>
       <c r="N562">
-        <v>328</v>
+        <v>10</v>
       </c>
     </row>
     <row r="563" spans="1:14">
@@ -25150,7 +25150,7 @@
         <v>66</v>
       </c>
       <c r="N563">
-        <v>314</v>
+        <v>12</v>
       </c>
     </row>
     <row r="564" spans="1:14">
@@ -25194,7 +25194,7 @@
         <v>54</v>
       </c>
       <c r="N564">
-        <v>309</v>
+        <v>10</v>
       </c>
     </row>
     <row r="565" spans="1:14">
@@ -25238,7 +25238,7 @@
         <v>64</v>
       </c>
       <c r="N565">
-        <v>320</v>
+        <v>13</v>
       </c>
     </row>
     <row r="566" spans="1:14">
@@ -25282,7 +25282,7 @@
         <v>65</v>
       </c>
       <c r="N566">
-        <v>317</v>
+        <v>11</v>
       </c>
     </row>
     <row r="567" spans="1:14">
@@ -25326,7 +25326,7 @@
         <v>59</v>
       </c>
       <c r="N567">
-        <v>327</v>
+        <v>11</v>
       </c>
     </row>
     <row r="568" spans="1:14">
@@ -25370,7 +25370,7 @@
         <v>82</v>
       </c>
       <c r="N568">
-        <v>310</v>
+        <v>21</v>
       </c>
     </row>
     <row r="569" spans="1:14">
@@ -25414,7 +25414,7 @@
         <v>74</v>
       </c>
       <c r="N569">
-        <v>318</v>
+        <v>21</v>
       </c>
     </row>
     <row r="570" spans="1:14">
@@ -25458,7 +25458,7 @@
         <v>70</v>
       </c>
       <c r="N570">
-        <v>336</v>
+        <v>12</v>
       </c>
     </row>
     <row r="571" spans="1:14">
@@ -25502,7 +25502,7 @@
         <v>70</v>
       </c>
       <c r="N571">
-        <v>336</v>
+        <v>12</v>
       </c>
     </row>
     <row r="572" spans="1:14">
@@ -25546,7 +25546,7 @@
         <v>61</v>
       </c>
       <c r="N572">
-        <v>334</v>
+        <v>9</v>
       </c>
     </row>
     <row r="573" spans="1:14">
@@ -25590,7 +25590,7 @@
         <v>71</v>
       </c>
       <c r="N573">
-        <v>328</v>
+        <v>11</v>
       </c>
     </row>
     <row r="574" spans="1:14">
@@ -25634,7 +25634,7 @@
         <v>67</v>
       </c>
       <c r="N574">
-        <v>328</v>
+        <v>11</v>
       </c>
     </row>
     <row r="575" spans="1:14">
@@ -25678,7 +25678,7 @@
         <v>67</v>
       </c>
       <c r="N575">
-        <v>328</v>
+        <v>11</v>
       </c>
     </row>
     <row r="576" spans="1:14">
@@ -25722,7 +25722,7 @@
         <v>62</v>
       </c>
       <c r="N576">
-        <v>332</v>
+        <v>10</v>
       </c>
     </row>
     <row r="577" spans="1:14">
@@ -25766,7 +25766,7 @@
         <v>64</v>
       </c>
       <c r="N577">
-        <v>335</v>
+        <v>15</v>
       </c>
     </row>
     <row r="578" spans="1:14">
@@ -25810,7 +25810,7 @@
         <v>66</v>
       </c>
       <c r="N578">
-        <v>352</v>
+        <v>14</v>
       </c>
     </row>
     <row r="579" spans="1:14">
@@ -25854,7 +25854,7 @@
         <v>89</v>
       </c>
       <c r="N579">
-        <v>354</v>
+        <v>13</v>
       </c>
     </row>
     <row r="580" spans="1:14">
@@ -25898,7 +25898,7 @@
         <v>74</v>
       </c>
       <c r="N580">
-        <v>328</v>
+        <v>11</v>
       </c>
     </row>
     <row r="581" spans="1:14">
@@ -25942,7 +25942,7 @@
         <v>69</v>
       </c>
       <c r="N581">
-        <v>330</v>
+        <v>10</v>
       </c>
     </row>
     <row r="582" spans="1:14">
@@ -25986,7 +25986,7 @@
         <v>80</v>
       </c>
       <c r="N582">
-        <v>312</v>
+        <v>30</v>
       </c>
     </row>
     <row r="583" spans="1:14">
@@ -26030,7 +26030,7 @@
         <v>66</v>
       </c>
       <c r="N583">
-        <v>347</v>
+        <v>12</v>
       </c>
     </row>
     <row r="584" spans="1:14">
@@ -26074,7 +26074,7 @@
         <v>66</v>
       </c>
       <c r="N584">
-        <v>347</v>
+        <v>12</v>
       </c>
     </row>
     <row r="585" spans="1:14">
@@ -26118,7 +26118,7 @@
         <v>71</v>
       </c>
       <c r="N585">
-        <v>354</v>
+        <v>13</v>
       </c>
     </row>
     <row r="586" spans="1:14">
@@ -26162,7 +26162,7 @@
         <v>67</v>
       </c>
       <c r="N586">
-        <v>339</v>
+        <v>12</v>
       </c>
     </row>
     <row r="587" spans="1:14">
@@ -26206,7 +26206,7 @@
         <v>74</v>
       </c>
       <c r="N587">
-        <v>312</v>
+        <v>27</v>
       </c>
     </row>
     <row r="588" spans="1:14">
@@ -26250,7 +26250,7 @@
         <v>70</v>
       </c>
       <c r="N588">
-        <v>355</v>
+        <v>13</v>
       </c>
     </row>
     <row r="589" spans="1:14">
@@ -26294,7 +26294,7 @@
         <v>69</v>
       </c>
       <c r="N589">
-        <v>339</v>
+        <v>12</v>
       </c>
     </row>
     <row r="590" spans="1:14">
@@ -26338,7 +26338,7 @@
         <v>74</v>
       </c>
       <c r="N590">
-        <v>355</v>
+        <v>12</v>
       </c>
     </row>
     <row r="591" spans="1:14">
@@ -26382,7 +26382,7 @@
         <v>56</v>
       </c>
       <c r="N591">
-        <v>356</v>
+        <v>11</v>
       </c>
     </row>
     <row r="592" spans="1:14">
@@ -26426,7 +26426,7 @@
         <v>78</v>
       </c>
       <c r="N592">
-        <v>344</v>
+        <v>17</v>
       </c>
     </row>
     <row r="593" spans="1:14">
@@ -26470,7 +26470,7 @@
         <v>71</v>
       </c>
       <c r="N593">
-        <v>355</v>
+        <v>12</v>
       </c>
     </row>
     <row r="594" spans="1:14">
@@ -26514,7 +26514,7 @@
         <v>73</v>
       </c>
       <c r="N594">
-        <v>346</v>
+        <v>15</v>
       </c>
     </row>
     <row r="595" spans="1:14">
@@ -26558,7 +26558,7 @@
         <v>73</v>
       </c>
       <c r="N595">
-        <v>346</v>
+        <v>15</v>
       </c>
     </row>
     <row r="596" spans="1:14">
@@ -26602,7 +26602,7 @@
         <v>76</v>
       </c>
       <c r="N596">
-        <v>345</v>
+        <v>16</v>
       </c>
     </row>
     <row r="597" spans="1:14">
@@ -26646,7 +26646,7 @@
         <v>57</v>
       </c>
       <c r="N597">
-        <v>356</v>
+        <v>11</v>
       </c>
     </row>
     <row r="598" spans="1:14">
@@ -26690,7 +26690,7 @@
         <v>62</v>
       </c>
       <c r="N598">
-        <v>300</v>
+        <v>11</v>
       </c>
     </row>
     <row r="599" spans="1:14">
@@ -26734,7 +26734,7 @@
         <v>61</v>
       </c>
       <c r="N599">
-        <v>302</v>
+        <v>10</v>
       </c>
     </row>
     <row r="600" spans="1:14">
@@ -26778,7 +26778,7 @@
         <v>62</v>
       </c>
       <c r="N600">
-        <v>306</v>
+        <v>10</v>
       </c>
     </row>
     <row r="601" spans="1:14">
@@ -26822,7 +26822,7 @@
         <v>70</v>
       </c>
       <c r="N601">
-        <v>326</v>
+        <v>13</v>
       </c>
     </row>
     <row r="602" spans="1:14">
@@ -26866,7 +26866,7 @@
         <v>59</v>
       </c>
       <c r="N602">
-        <v>318</v>
+        <v>12</v>
       </c>
     </row>
     <row r="603" spans="1:14">
@@ -26910,7 +26910,7 @@
         <v>54</v>
       </c>
       <c r="N603">
-        <v>329</v>
+        <v>10</v>
       </c>
     </row>
     <row r="604" spans="1:14">
@@ -26954,7 +26954,7 @@
         <v>55</v>
       </c>
       <c r="N604">
-        <v>328</v>
+        <v>10</v>
       </c>
     </row>
     <row r="605" spans="1:14">
@@ -26998,7 +26998,7 @@
         <v>56</v>
       </c>
       <c r="N605">
-        <v>336</v>
+        <v>10</v>
       </c>
     </row>
     <row r="606" spans="1:14">
@@ -27042,7 +27042,7 @@
         <v>108</v>
       </c>
       <c r="N606">
-        <v>370</v>
+        <v>39</v>
       </c>
     </row>
     <row r="607" spans="1:14">
@@ -27086,7 +27086,7 @@
         <v>92</v>
       </c>
       <c r="N607">
-        <v>371</v>
+        <v>39</v>
       </c>
     </row>
     <row r="608" spans="1:14">
@@ -27130,7 +27130,7 @@
         <v>90</v>
       </c>
       <c r="N608">
-        <v>365</v>
+        <v>44</v>
       </c>
     </row>
     <row r="609" spans="1:14">
@@ -27174,7 +27174,7 @@
         <v>97</v>
       </c>
       <c r="N609">
-        <v>364</v>
+        <v>44</v>
       </c>
     </row>
     <row r="610" spans="1:14">
@@ -27218,7 +27218,7 @@
         <v>96</v>
       </c>
       <c r="N610">
-        <v>373</v>
+        <v>37</v>
       </c>
     </row>
     <row r="611" spans="1:14">
@@ -27262,7 +27262,7 @@
         <v>97</v>
       </c>
       <c r="N611">
-        <v>364</v>
+        <v>44</v>
       </c>
     </row>
     <row r="612" spans="1:14">
@@ -27306,7 +27306,7 @@
         <v>96</v>
       </c>
       <c r="N612">
-        <v>373</v>
+        <v>37</v>
       </c>
     </row>
     <row r="613" spans="1:14">
@@ -27350,7 +27350,7 @@
         <v>105</v>
       </c>
       <c r="N613">
-        <v>358</v>
+        <v>50</v>
       </c>
     </row>
     <row r="614" spans="1:14">
@@ -27394,7 +27394,7 @@
         <v>97</v>
       </c>
       <c r="N614">
-        <v>367</v>
+        <v>42</v>
       </c>
     </row>
     <row r="615" spans="1:14">
@@ -27438,7 +27438,7 @@
         <v>96</v>
       </c>
       <c r="N615">
-        <v>365</v>
+        <v>45</v>
       </c>
     </row>
     <row r="616" spans="1:14">
@@ -27482,7 +27482,7 @@
         <v>112</v>
       </c>
       <c r="N616">
-        <v>356</v>
+        <v>48</v>
       </c>
     </row>
     <row r="617" spans="1:14">
@@ -27526,7 +27526,7 @@
         <v>92</v>
       </c>
       <c r="N617">
-        <v>374</v>
+        <v>37</v>
       </c>
     </row>
     <row r="618" spans="1:14">
@@ -27570,7 +27570,7 @@
         <v>93</v>
       </c>
       <c r="N618">
-        <v>366</v>
+        <v>44</v>
       </c>
     </row>
     <row r="619" spans="1:14">
@@ -27614,7 +27614,7 @@
         <v>96</v>
       </c>
       <c r="N619">
-        <v>382</v>
+        <v>38</v>
       </c>
     </row>
     <row r="620" spans="1:14">
@@ -27658,7 +27658,7 @@
         <v>95</v>
       </c>
       <c r="N620">
-        <v>367</v>
+        <v>42</v>
       </c>
     </row>
     <row r="621" spans="1:14">
@@ -27702,7 +27702,7 @@
         <v>96</v>
       </c>
       <c r="N621">
-        <v>372</v>
+        <v>46</v>
       </c>
     </row>
     <row r="622" spans="1:14">
@@ -27746,7 +27746,7 @@
         <v>95</v>
       </c>
       <c r="N622">
-        <v>367</v>
+        <v>42</v>
       </c>
     </row>
     <row r="623" spans="1:14">
@@ -27790,7 +27790,7 @@
         <v>96</v>
       </c>
       <c r="N623">
-        <v>372</v>
+        <v>46</v>
       </c>
     </row>
     <row r="624" spans="1:14">
@@ -27834,7 +27834,7 @@
         <v>94</v>
       </c>
       <c r="N624">
-        <v>366</v>
+        <v>43</v>
       </c>
     </row>
     <row r="625" spans="1:14">
@@ -27878,7 +27878,7 @@
         <v>104</v>
       </c>
       <c r="N625">
-        <v>362</v>
+        <v>54</v>
       </c>
     </row>
     <row r="626" spans="1:14">
@@ -27922,7 +27922,7 @@
         <v>94</v>
       </c>
       <c r="N626">
-        <v>366</v>
+        <v>43</v>
       </c>
     </row>
     <row r="627" spans="1:14">
@@ -27966,7 +27966,7 @@
         <v>99</v>
       </c>
       <c r="N627">
-        <v>361</v>
+        <v>45</v>
       </c>
     </row>
     <row r="628" spans="1:14">
@@ -28010,7 +28010,7 @@
         <v>104</v>
       </c>
       <c r="N628">
-        <v>362</v>
+        <v>54</v>
       </c>
     </row>
     <row r="629" spans="1:14">
@@ -28054,7 +28054,7 @@
         <v>93</v>
       </c>
       <c r="N629">
-        <v>362</v>
+        <v>46</v>
       </c>
     </row>
     <row r="630" spans="1:14">
@@ -28098,7 +28098,7 @@
         <v>109</v>
       </c>
       <c r="N630">
-        <v>359</v>
+        <v>56</v>
       </c>
     </row>
     <row r="631" spans="1:14">
@@ -28142,7 +28142,7 @@
         <v>98</v>
       </c>
       <c r="N631">
-        <v>361</v>
+        <v>47</v>
       </c>
     </row>
     <row r="632" spans="1:14">
@@ -28186,7 +28186,7 @@
         <v>106</v>
       </c>
       <c r="N632">
-        <v>361</v>
+        <v>56</v>
       </c>
     </row>
     <row r="633" spans="1:14">
@@ -28230,7 +28230,7 @@
         <v>106</v>
       </c>
       <c r="N633">
-        <v>347</v>
+        <v>49</v>
       </c>
     </row>
     <row r="634" spans="1:14">
@@ -28274,7 +28274,7 @@
         <v>95</v>
       </c>
       <c r="N634">
-        <v>381</v>
+        <v>37</v>
       </c>
     </row>
     <row r="635" spans="1:14">
@@ -28318,7 +28318,7 @@
         <v>95</v>
       </c>
       <c r="N635">
-        <v>381</v>
+        <v>37</v>
       </c>
     </row>
     <row r="636" spans="1:14">
@@ -28362,7 +28362,7 @@
         <v>104</v>
       </c>
       <c r="N636">
-        <v>356</v>
+        <v>46</v>
       </c>
     </row>
     <row r="637" spans="1:14">
@@ -28406,7 +28406,7 @@
         <v>108</v>
       </c>
       <c r="N637">
-        <v>362</v>
+        <v>49</v>
       </c>
     </row>
     <row r="638" spans="1:14">
@@ -28450,7 +28450,7 @@
         <v>104</v>
       </c>
       <c r="N638">
-        <v>382</v>
+        <v>31</v>
       </c>
     </row>
     <row r="639" spans="1:14">
@@ -28494,7 +28494,7 @@
         <v>92</v>
       </c>
       <c r="N639">
-        <v>328</v>
+        <v>15</v>
       </c>
     </row>
     <row r="640" spans="1:14">
@@ -28538,7 +28538,7 @@
         <v>122</v>
       </c>
       <c r="N640">
-        <v>385</v>
+        <v>36</v>
       </c>
     </row>
     <row r="641" spans="1:14">
@@ -28582,7 +28582,7 @@
         <v>68</v>
       </c>
       <c r="N641">
-        <v>323</v>
+        <v>12</v>
       </c>
     </row>
     <row r="642" spans="1:14">
@@ -28626,7 +28626,7 @@
         <v>83</v>
       </c>
       <c r="N642">
-        <v>362</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643" spans="1:14">
@@ -28670,7 +28670,7 @@
         <v>67</v>
       </c>
       <c r="N643">
-        <v>321</v>
+        <v>11</v>
       </c>
     </row>
     <row r="644" spans="1:14">
@@ -28714,7 +28714,7 @@
         <v>85</v>
       </c>
       <c r="N644">
-        <v>330</v>
+        <v>14</v>
       </c>
     </row>
     <row r="645" spans="1:14">
@@ -28758,7 +28758,7 @@
         <v>72</v>
       </c>
       <c r="N645">
-        <v>341</v>
+        <v>10</v>
       </c>
     </row>
     <row r="646" spans="1:14">
@@ -28802,7 +28802,7 @@
         <v>93</v>
       </c>
       <c r="N646">
-        <v>362</v>
+        <v>11</v>
       </c>
     </row>
     <row r="647" spans="1:14">
@@ -28846,7 +28846,7 @@
         <v>93</v>
       </c>
       <c r="N647">
-        <v>372</v>
+        <v>35</v>
       </c>
     </row>
     <row r="648" spans="1:14">
@@ -28890,7 +28890,7 @@
         <v>90</v>
       </c>
       <c r="N648">
-        <v>370</v>
+        <v>6</v>
       </c>
     </row>
     <row r="649" spans="1:14">
@@ -28934,7 +28934,7 @@
         <v>93</v>
       </c>
       <c r="N649">
-        <v>372</v>
+        <v>35</v>
       </c>
     </row>
     <row r="650" spans="1:14">
@@ -28978,7 +28978,7 @@
         <v>90</v>
       </c>
       <c r="N650">
-        <v>370</v>
+        <v>6</v>
       </c>
     </row>
     <row r="651" spans="1:14">
@@ -29022,7 +29022,7 @@
         <v>78</v>
       </c>
       <c r="N651">
-        <v>336</v>
+        <v>13</v>
       </c>
     </row>
     <row r="652" spans="1:14">
@@ -29066,7 +29066,7 @@
         <v>95</v>
       </c>
       <c r="N652">
-        <v>356</v>
+        <v>13</v>
       </c>
     </row>
     <row r="653" spans="1:14">
@@ -29110,7 +29110,7 @@
         <v>72</v>
       </c>
       <c r="N653">
-        <v>343</v>
+        <v>8</v>
       </c>
     </row>
     <row r="654" spans="1:14">
@@ -29154,7 +29154,7 @@
         <v>92</v>
       </c>
       <c r="N654">
-        <v>360</v>
+        <v>11</v>
       </c>
     </row>
     <row r="655" spans="1:14">
@@ -29198,7 +29198,7 @@
         <v>75</v>
       </c>
       <c r="N655">
-        <v>341</v>
+        <v>12</v>
       </c>
     </row>
     <row r="656" spans="1:14">
@@ -29242,7 +29242,7 @@
         <v>83</v>
       </c>
       <c r="N656">
-        <v>361</v>
+        <v>13</v>
       </c>
     </row>
     <row r="657" spans="1:14">
@@ -29286,7 +29286,7 @@
         <v>82</v>
       </c>
       <c r="N657">
-        <v>330</v>
+        <v>40</v>
       </c>
     </row>
     <row r="658" spans="1:14">
@@ -29330,7 +29330,7 @@
         <v>84</v>
       </c>
       <c r="N658">
-        <v>329</v>
+        <v>42</v>
       </c>
     </row>
     <row r="659" spans="1:14">
@@ -29374,7 +29374,7 @@
         <v>78</v>
       </c>
       <c r="N659">
-        <v>333</v>
+        <v>39</v>
       </c>
     </row>
     <row r="660" spans="1:14">
@@ -29418,7 +29418,7 @@
         <v>80</v>
       </c>
       <c r="N660">
-        <v>334</v>
+        <v>38</v>
       </c>
     </row>
     <row r="661" spans="1:14">
@@ -29462,7 +29462,7 @@
         <v>93</v>
       </c>
       <c r="N661">
-        <v>348</v>
+        <v>40</v>
       </c>
     </row>
     <row r="662" spans="1:14">
@@ -29506,7 +29506,7 @@
         <v>83</v>
       </c>
       <c r="N662">
-        <v>358</v>
+        <v>40</v>
       </c>
     </row>
     <row r="663" spans="1:14">
@@ -29550,7 +29550,7 @@
         <v>91</v>
       </c>
       <c r="N663">
-        <v>348</v>
+        <v>40</v>
       </c>
     </row>
     <row r="664" spans="1:14">
@@ -29594,7 +29594,7 @@
         <v>81</v>
       </c>
       <c r="N664">
-        <v>361</v>
+        <v>36</v>
       </c>
     </row>
     <row r="665" spans="1:14">
@@ -29638,7 +29638,7 @@
         <v>93</v>
       </c>
       <c r="N665">
-        <v>345</v>
+        <v>43</v>
       </c>
     </row>
     <row r="666" spans="1:14">
@@ -29682,7 +29682,7 @@
         <v>93</v>
       </c>
       <c r="N666">
-        <v>347</v>
+        <v>41</v>
       </c>
     </row>
     <row r="667" spans="1:14">
@@ -29726,7 +29726,7 @@
         <v>93</v>
       </c>
       <c r="N667">
-        <v>345</v>
+        <v>43</v>
       </c>
     </row>
     <row r="668" spans="1:14">
@@ -29770,7 +29770,7 @@
         <v>83</v>
       </c>
       <c r="N668">
-        <v>352</v>
+        <v>33</v>
       </c>
     </row>
     <row r="669" spans="1:14">
@@ -29814,7 +29814,7 @@
         <v>87</v>
       </c>
       <c r="N669">
-        <v>348</v>
+        <v>41</v>
       </c>
     </row>
     <row r="670" spans="1:14">
@@ -29858,7 +29858,7 @@
         <v>79</v>
       </c>
       <c r="N670">
-        <v>341</v>
+        <v>42</v>
       </c>
     </row>
     <row r="671" spans="1:14">
@@ -29902,7 +29902,7 @@
         <v>93</v>
       </c>
       <c r="N671">
-        <v>350</v>
+        <v>41</v>
       </c>
     </row>
     <row r="672" spans="1:14">
@@ -29946,7 +29946,7 @@
         <v>92</v>
       </c>
       <c r="N672">
-        <v>344</v>
+        <v>44</v>
       </c>
     </row>
     <row r="673" spans="1:14">
@@ -29990,7 +29990,7 @@
         <v>91</v>
       </c>
       <c r="N673">
-        <v>353</v>
+        <v>39</v>
       </c>
     </row>
     <row r="674" spans="1:14">
@@ -30034,7 +30034,7 @@
         <v>93</v>
       </c>
       <c r="N674">
-        <v>345</v>
+        <v>43</v>
       </c>
     </row>
     <row r="675" spans="1:14">
@@ -30078,7 +30078,7 @@
         <v>88</v>
       </c>
       <c r="N675">
-        <v>351</v>
+        <v>37</v>
       </c>
     </row>
     <row r="676" spans="1:14">
@@ -30122,7 +30122,7 @@
         <v>93</v>
       </c>
       <c r="N676">
-        <v>345</v>
+        <v>42</v>
       </c>
     </row>
     <row r="677" spans="1:14">
@@ -30166,7 +30166,7 @@
         <v>86</v>
       </c>
       <c r="N677">
-        <v>349</v>
+        <v>39</v>
       </c>
     </row>
     <row r="678" spans="1:14">
@@ -30210,7 +30210,7 @@
         <v>98</v>
       </c>
       <c r="N678">
-        <v>352</v>
+        <v>45</v>
       </c>
     </row>
     <row r="679" spans="1:14">
@@ -30254,7 +30254,7 @@
         <v>97</v>
       </c>
       <c r="N679">
-        <v>343</v>
+        <v>45</v>
       </c>
     </row>
     <row r="680" spans="1:14">
@@ -30298,7 +30298,7 @@
         <v>87</v>
       </c>
       <c r="N680">
-        <v>358</v>
+        <v>35</v>
       </c>
     </row>
     <row r="681" spans="1:14">
@@ -30342,7 +30342,7 @@
         <v>96</v>
       </c>
       <c r="N681">
-        <v>352</v>
+        <v>46</v>
       </c>
     </row>
     <row r="682" spans="1:14">
@@ -30386,7 +30386,7 @@
         <v>88</v>
       </c>
       <c r="N682">
-        <v>358</v>
+        <v>36</v>
       </c>
     </row>
     <row r="683" spans="1:14">
@@ -30430,7 +30430,7 @@
         <v>87</v>
       </c>
       <c r="N683">
-        <v>354</v>
+        <v>38</v>
       </c>
     </row>
     <row r="684" spans="1:14">
@@ -30474,7 +30474,7 @@
         <v>86</v>
       </c>
       <c r="N684">
-        <v>353</v>
+        <v>39</v>
       </c>
     </row>
     <row r="685" spans="1:14">
@@ -30518,7 +30518,7 @@
         <v>89</v>
       </c>
       <c r="N685">
-        <v>347</v>
+        <v>41</v>
       </c>
     </row>
     <row r="686" spans="1:14">
@@ -30562,7 +30562,7 @@
         <v>89</v>
       </c>
       <c r="N686">
-        <v>347</v>
+        <v>44</v>
       </c>
     </row>
     <row r="687" spans="1:14">
@@ -30606,7 +30606,7 @@
         <v>95</v>
       </c>
       <c r="N687">
-        <v>349</v>
+        <v>40</v>
       </c>
     </row>
     <row r="688" spans="1:14">
@@ -30650,7 +30650,7 @@
         <v>90</v>
       </c>
       <c r="N688">
-        <v>345</v>
+        <v>46</v>
       </c>
     </row>
     <row r="689" spans="1:14">
@@ -30694,7 +30694,7 @@
         <v>90</v>
       </c>
       <c r="N689">
-        <v>347</v>
+        <v>45</v>
       </c>
     </row>
     <row r="690" spans="1:14">
@@ -30738,7 +30738,7 @@
         <v>85</v>
       </c>
       <c r="N690">
-        <v>350</v>
+        <v>39</v>
       </c>
     </row>
     <row r="691" spans="1:14">
@@ -30782,7 +30782,7 @@
         <v>85</v>
       </c>
       <c r="N691">
-        <v>349</v>
+        <v>42</v>
       </c>
     </row>
     <row r="692" spans="1:14">
@@ -30826,7 +30826,7 @@
         <v>89</v>
       </c>
       <c r="N692">
-        <v>346</v>
+        <v>46</v>
       </c>
     </row>
     <row r="693" spans="1:14">
@@ -30870,7 +30870,7 @@
         <v>87</v>
       </c>
       <c r="N693">
-        <v>349</v>
+        <v>43</v>
       </c>
     </row>
     <row r="694" spans="1:14">
@@ -30914,7 +30914,7 @@
         <v>83</v>
       </c>
       <c r="N694">
-        <v>347</v>
+        <v>44</v>
       </c>
     </row>
     <row r="695" spans="1:14">
@@ -30958,7 +30958,7 @@
         <v>90</v>
       </c>
       <c r="N695">
-        <v>347</v>
+        <v>45</v>
       </c>
     </row>
     <row r="696" spans="1:14">
@@ -31002,7 +31002,7 @@
         <v>88</v>
       </c>
       <c r="N696">
-        <v>349</v>
+        <v>42</v>
       </c>
     </row>
     <row r="697" spans="1:14">
@@ -31046,7 +31046,7 @@
         <v>90</v>
       </c>
       <c r="N697">
-        <v>346</v>
+        <v>46</v>
       </c>
     </row>
     <row r="698" spans="1:14">
@@ -31090,7 +31090,7 @@
         <v>91</v>
       </c>
       <c r="N698">
-        <v>368</v>
+        <v>42</v>
       </c>
     </row>
     <row r="699" spans="1:14">
@@ -31134,7 +31134,7 @@
         <v>87</v>
       </c>
       <c r="N699">
-        <v>348</v>
+        <v>44</v>
       </c>
     </row>
     <row r="700" spans="1:14">
@@ -31178,7 +31178,7 @@
         <v>91</v>
       </c>
       <c r="N700">
-        <v>351</v>
+        <v>39</v>
       </c>
     </row>
     <row r="701" spans="1:14">
@@ -31222,7 +31222,7 @@
         <v>96</v>
       </c>
       <c r="N701">
-        <v>363</v>
+        <v>47</v>
       </c>
     </row>
     <row r="702" spans="1:14">
@@ -31266,7 +31266,7 @@
         <v>87</v>
       </c>
       <c r="N702">
-        <v>349</v>
+        <v>42</v>
       </c>
     </row>
     <row r="703" spans="1:14">
@@ -31310,7 +31310,7 @@
         <v>93</v>
       </c>
       <c r="N703">
-        <v>358</v>
+        <v>42</v>
       </c>
     </row>
     <row r="704" spans="1:14">
@@ -31354,7 +31354,7 @@
         <v>99</v>
       </c>
       <c r="N704">
-        <v>371</v>
+        <v>40</v>
       </c>
     </row>
     <row r="705" spans="1:14">
@@ -31398,7 +31398,7 @@
         <v>89</v>
       </c>
       <c r="N705">
-        <v>367</v>
+        <v>43</v>
       </c>
     </row>
     <row r="706" spans="1:14">
@@ -31442,7 +31442,7 @@
         <v>89</v>
       </c>
       <c r="N706">
-        <v>350</v>
+        <v>40</v>
       </c>
     </row>
     <row r="707" spans="1:14">
@@ -31486,7 +31486,7 @@
         <v>95</v>
       </c>
       <c r="N707">
-        <v>370</v>
+        <v>39</v>
       </c>
     </row>
     <row r="708" spans="1:14">
@@ -31530,7 +31530,7 @@
         <v>82</v>
       </c>
       <c r="N708">
-        <v>369</v>
+        <v>31</v>
       </c>
     </row>
     <row r="709" spans="1:14">
@@ -31574,7 +31574,7 @@
         <v>97</v>
       </c>
       <c r="N709">
-        <v>371</v>
+        <v>40</v>
       </c>
     </row>
     <row r="710" spans="1:14">
@@ -31618,7 +31618,7 @@
         <v>98</v>
       </c>
       <c r="N710">
-        <v>363</v>
+        <v>47</v>
       </c>
     </row>
     <row r="711" spans="1:14">
@@ -31662,7 +31662,7 @@
         <v>94</v>
       </c>
       <c r="N711">
-        <v>365</v>
+        <v>45</v>
       </c>
     </row>
     <row r="712" spans="1:14">
@@ -31706,7 +31706,7 @@
         <v>97</v>
       </c>
       <c r="N712">
-        <v>381</v>
+        <v>40</v>
       </c>
     </row>
     <row r="713" spans="1:14">
@@ -31750,7 +31750,7 @@
         <v>96</v>
       </c>
       <c r="N713">
-        <v>367</v>
+        <v>42</v>
       </c>
     </row>
     <row r="714" spans="1:14">
@@ -31794,7 +31794,7 @@
         <v>84</v>
       </c>
       <c r="N714">
-        <v>377</v>
+        <v>33</v>
       </c>
     </row>
     <row r="715" spans="1:14">
@@ -31838,7 +31838,7 @@
         <v>101</v>
       </c>
       <c r="N715">
-        <v>363</v>
+        <v>44</v>
       </c>
     </row>
     <row r="716" spans="1:14">
@@ -31882,7 +31882,7 @@
         <v>96</v>
       </c>
       <c r="N716">
-        <v>368</v>
+        <v>42</v>
       </c>
     </row>
     <row r="717" spans="1:14">
@@ -31926,7 +31926,7 @@
         <v>98</v>
       </c>
       <c r="N717">
-        <v>366</v>
+        <v>44</v>
       </c>
     </row>
     <row r="718" spans="1:14">
@@ -31970,7 +31970,7 @@
         <v>94</v>
       </c>
       <c r="N718">
-        <v>373</v>
+        <v>39</v>
       </c>
     </row>
     <row r="719" spans="1:14">
@@ -32014,7 +32014,7 @@
         <v>98</v>
       </c>
       <c r="N719">
-        <v>363</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
